--- a/Master_Word_List.xlsx
+++ b/Master_Word_List.xlsx
@@ -2195,12 +2195,6 @@
     <t>string_244,</t>
   </si>
   <si>
-    <t>prog_char string_83[] PROGMEM = "a sense of loss";</t>
-  </si>
-  <si>
-    <t>prog_char string_129[] PROGMEM = " understanding ";</t>
-  </si>
-  <si>
     <t>prog_char string_130[] PROGMEM = "    reliable    ";</t>
   </si>
   <si>
@@ -2210,42 +2204,21 @@
     <t>prog_char string_132[] PROGMEM = "     amazed     ";</t>
   </si>
   <si>
-    <t>prog_char string_133[] PROGMEM = "  sympathetic  ";</t>
-  </si>
-  <si>
     <t>prog_char string_134[] PROGMEM = "   interested   ";</t>
   </si>
   <si>
-    <t>prog_char string_135[] PROGMEM = "   receptive   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_136[] PROGMEM = "   accepting   ";</t>
-  </si>
-  <si>
     <t>prog_char string_137[] PROGMEM = "      kind      ";</t>
   </si>
   <si>
     <t>prog_char string_138[] PROGMEM = "     loving     ";</t>
   </si>
   <si>
-    <t>prog_char string_139[] PROGMEM = "  considerate  ";</t>
-  </si>
-  <si>
     <t>prog_char string_140[] PROGMEM = "  affectionate  ";</t>
   </si>
   <si>
-    <t>prog_char string_141[] PROGMEM = "   sensitive   ";</t>
-  </si>
-  <si>
     <t>prog_char string_142[] PROGMEM = "     tender     ";</t>
   </si>
   <si>
-    <t>prog_char string_143[] PROGMEM = "    devoted    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_144[] PROGMEM = "   attracted   ";</t>
-  </si>
-  <si>
     <t>prog_char string_145[] PROGMEM = "   passionate   ";</t>
   </si>
   <si>
@@ -2255,57 +2228,18 @@
     <t>prog_char string_147[] PROGMEM = "      warm      ";</t>
   </si>
   <si>
-    <t>prog_char string_148[] PROGMEM = "    touched    ";</t>
-  </si>
-  <si>
     <t>prog_char string_149[] PROGMEM = "    sympathy    ";</t>
   </si>
   <si>
-    <t>prog_char string_150[] PROGMEM = "     close     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_151[] PROGMEM = "     loved     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_152[] PROGMEM = "   comforted   ";</t>
-  </si>
-  <si>
     <t>prog_char string_153[] PROGMEM = "  drawn toward  ";</t>
   </si>
   <si>
-    <t>prog_char string_154[] PROGMEM = "     great     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_155[] PROGMEM = "      gay      ";</t>
-  </si>
-  <si>
     <t>prog_char string_156[] PROGMEM = "     joyous     ";</t>
   </si>
   <si>
-    <t>prog_char string_157[] PROGMEM = "     lucky     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_158[] PROGMEM = "   fortunate   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_159[] PROGMEM = "   delighted   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_160[] PROGMEM = "   overjoyed   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_161[] PROGMEM = "    gleeful    ";</t>
-  </si>
-  <si>
     <t>prog_char string_162[] PROGMEM = "    thankful    ";</t>
   </si>
   <si>
-    <t>prog_char string_163[] PROGMEM = "   important   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_164[] PROGMEM = "    festive    ";</t>
-  </si>
-  <si>
     <t>prog_char string_165[] PROGMEM = "    ecstatic    ";</t>
   </si>
   <si>
@@ -2315,63 +2249,30 @@
     <t>prog_char string_167[] PROGMEM = "    cheerful    ";</t>
   </si>
   <si>
-    <t>prog_char string_168[] PROGMEM = "     sunny     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_169[] PROGMEM = "     merry     ";</t>
-  </si>
-  <si>
     <t>prog_char string_170[] PROGMEM = "     elated     ";</t>
   </si>
   <si>
     <t>prog_char string_171[] PROGMEM = "    jubilant    ";</t>
   </si>
   <si>
-    <t>prog_char string_172[] PROGMEM = "   concerned   ";</t>
-  </si>
-  <si>
     <t>prog_char string_173[] PROGMEM = "    affected    ";</t>
   </si>
   <si>
     <t>prog_char string_174[] PROGMEM = "   fascinated   ";</t>
   </si>
   <si>
-    <t>prog_char string_175[] PROGMEM = "   intrigued   ";</t>
-  </si>
-  <si>
     <t>prog_char string_176[] PROGMEM = "    absorbed    ";</t>
   </si>
   <si>
-    <t>prog_char string_177[] PROGMEM = "  inquisitive  ";</t>
-  </si>
-  <si>
     <t>prog_char string_178[] PROGMEM = "      nosy      ";</t>
   </si>
   <si>
     <t>prog_char string_179[] PROGMEM = "     snoopy     ";</t>
   </si>
   <si>
-    <t>prog_char string_180[] PROGMEM = "   engrossed   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_181[] PROGMEM = "    curious    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_182[] PROGMEM = "    playful    ";</t>
-  </si>
-  <si>
     <t>prog_char string_183[] PROGMEM = "   courageous   ";</t>
   </si>
   <si>
-    <t>prog_char string_184[] PROGMEM = "   energetic   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_185[] PROGMEM = "   liberated   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_186[] PROGMEM = "  provocative  ";</t>
-  </si>
-  <si>
     <t>prog_char string_187[] PROGMEM = "     frisky     ";</t>
   </si>
   <si>
@@ -2384,102 +2285,48 @@
     <t>prog_char string_190[] PROGMEM = "    thrilled    ";</t>
   </si>
   <si>
-    <t>prog_char string_191[] PROGMEM = "   wonderful   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_192[] PROGMEM = "     eager     ";</t>
-  </si>
-  <si>
     <t>prog_char string_193[] PROGMEM = "      keen      ";</t>
   </si>
   <si>
-    <t>prog_char string_194[] PROGMEM = "    earnest    ";</t>
-  </si>
-  <si>
     <t>prog_char string_195[] PROGMEM = "     intent     ";</t>
   </si>
   <si>
-    <t>prog_char string_196[] PROGMEM = "    anxious    ";</t>
-  </si>
-  <si>
     <t>prog_char string_197[] PROGMEM = "    inspired    ";</t>
   </si>
   <si>
     <t>prog_char string_198[] PROGMEM = "   determined   ";</t>
   </si>
   <si>
-    <t>prog_char string_199[] PROGMEM = "    excited    ";</t>
-  </si>
-  <si>
     <t>prog_char string_200[] PROGMEM = "  enthusiastic  ";</t>
   </si>
   <si>
     <t>prog_char string_201[] PROGMEM = "      bold      ";</t>
   </si>
   <si>
-    <t>prog_char string_202[] PROGMEM = "     brave     ";</t>
-  </si>
-  <si>
     <t>prog_char string_203[] PROGMEM = "     daring     ";</t>
   </si>
   <si>
     <t>prog_char string_204[] PROGMEM = "   challenged   ";</t>
   </si>
   <si>
-    <t>prog_char string_205[] PROGMEM = "  re-enforced  ";</t>
-  </si>
-  <si>
-    <t>prog_char string_206[] PROGMEM = "    hopeful    ";</t>
-  </si>
-  <si>
     <t>prog_char string_207[] PROGMEM = "      calm      ";</t>
   </si>
   <si>
     <t>prog_char string_208[] PROGMEM = "    peaceful    ";</t>
   </si>
   <si>
-    <t>prog_char string_209[] PROGMEM = "    at ease    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_210[] PROGMEM = "  comfortable  ";</t>
-  </si>
-  <si>
-    <t>prog_char string_211[] PROGMEM = "    pleased    ";</t>
-  </si>
-  <si>
     <t>prog_char string_212[] PROGMEM = "   encouraged   ";</t>
   </si>
   <si>
     <t>prog_char string_213[] PROGMEM = "     clever     ";</t>
   </si>
   <si>
-    <t>prog_char string_214[] PROGMEM = "   surprised   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_215[] PROGMEM = "    content    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_216[] PROGMEM = "     quiet     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_217[] PROGMEM = "    relaxed    ";</t>
-  </si>
-  <si>
     <t>prog_char string_218[] PROGMEM = "     serene     ";</t>
   </si>
   <si>
-    <t>prog_char string_219[] PROGMEM = " free and easy ";</t>
-  </si>
-  <si>
     <t>prog_char string_220[] PROGMEM = "     bright     ";</t>
   </si>
   <si>
-    <t>prog_char string_221[] PROGMEM = "    blessed    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_222[] PROGMEM = "   reassured   ";</t>
-  </si>
-  <si>
     <t>prog_char string_223[] PROGMEM = "      sure      ";</t>
   </si>
   <si>
@@ -2489,24 +2336,9 @@
     <t>prog_char string_225[] PROGMEM = "     unique     ";</t>
   </si>
   <si>
-    <t>prog_char string_226[] PROGMEM = "    dynamic    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_227[] PROGMEM = "   tenacious   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_228[] PROGMEM = "     hardy     ";</t>
-  </si>
-  <si>
     <t>prog_char string_229[] PROGMEM = "     secure     ";</t>
   </si>
   <si>
-    <t>prog_char string_0[] PROGMEM = "   irritated   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_1[] PROGMEM = "    enraged    ";</t>
-  </si>
-  <si>
     <t>prog_char string_2[] PROGMEM = "     bitter     ";</t>
   </si>
   <si>
@@ -2516,9 +2348,6 @@
     <t>prog_char string_4[] PROGMEM = "   victimized   ";</t>
   </si>
   <si>
-    <t>prog_char string_5[] PROGMEM = "  heartbroken  ";</t>
-  </si>
-  <si>
     <t>prog_char string_6[] PROGMEM = "    agonized    ";</t>
   </si>
   <si>
@@ -2528,51 +2357,24 @@
     <t>prog_char string_8[] PROGMEM = "   humiliated   ";</t>
   </si>
   <si>
-    <t>prog_char string_9[] PROGMEM = "    wronged    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_10[] PROGMEM = "   alienated   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_11[] PROGMEM = "   incapable   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_12[] PROGMEM = "     alone     ";</t>
-  </si>
-  <si>
     <t>prog_char string_13[] PROGMEM = "   aggressive   ";</t>
   </si>
   <si>
-    <t>prog_char string_14[] PROGMEM = "   paralyzed   ";</t>
-  </si>
-  <si>
     <t>prog_char string_15[] PROGMEM = "    fatigued    ";</t>
   </si>
   <si>
-    <t>prog_char string_16[] PROGMEM = "    useless    ";</t>
-  </si>
-  <si>
     <t>prog_char string_17[] PROGMEM = "    inferior    ";</t>
   </si>
   <si>
     <t>prog_char string_18[] PROGMEM = "   vulnerable   ";</t>
   </si>
   <si>
-    <t>prog_char string_19[] PROGMEM = "     empty     ";</t>
-  </si>
-  <si>
     <t>prog_char string_20[] PROGMEM = "     forced     ";</t>
   </si>
   <si>
-    <t>prog_char string_21[] PROGMEM = "    despair    ";</t>
-  </si>
-  <si>
     <t>prog_char string_22[] PROGMEM = "   frustrated   ";</t>
   </si>
   <si>
-    <t>prog_char string_23[] PROGMEM = "   resentful   ";</t>
-  </si>
-  <si>
     <t>prog_char string_24[] PROGMEM = "   distressed   ";</t>
   </si>
   <si>
@@ -2585,42 +2387,15 @@
     <t>prog_char string_27[] PROGMEM = "     tragic     ";</t>
   </si>
   <si>
-    <t>prog_char string_28[] PROGMEM = "   in a stew   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_29[] PROGMEM = "   dominated   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_30[] PROGMEM = "    tearful    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_31[] PROGMEM = "   sorrowful   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_32[] PROGMEM = "     grief     ";</t>
-  </si>
-  <si>
     <t>prog_char string_33[] PROGMEM = "    inflamed    ";</t>
   </si>
   <si>
-    <t>prog_char string_34[] PROGMEM = "    anguish    ";</t>
-  </si>
-  <si>
     <t>prog_char string_35[] PROGMEM = "    desolate    ";</t>
   </si>
   <si>
-    <t>prog_char string_36[] PROGMEM = "   desperate   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_37[] PROGMEM = "    unhappy    ";</t>
-  </si>
-  <si>
     <t>prog_char string_38[] PROGMEM = "     lonely     ";</t>
   </si>
   <si>
-    <t>prog_char string_39[] PROGMEM = "    grieved    ";</t>
-  </si>
-  <si>
     <t>prog_char string_40[] PROGMEM = "    mournful    ";</t>
   </si>
   <si>
@@ -2636,75 +2411,27 @@
     <t>prog_char string_44[] PROGMEM = "   infuriated   ";</t>
   </si>
   <si>
-    <t>prog_char string_45[] PROGMEM = "     cross     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_46[] PROGMEM = "   worked up   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_47[] PROGMEM = "    boiling    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_48[] PROGMEM = "    hostile    ";</t>
-  </si>
-  <si>
     <t>prog_char string_49[] PROGMEM = "     fuming     ";</t>
   </si>
   <si>
-    <t>prog_char string_50[] PROGMEM = "   indignant   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_51[] PROGMEM = "  insensitive  ";</t>
-  </si>
-  <si>
     <t>prog_char string_52[] PROGMEM = "      dull      ";</t>
   </si>
   <si>
     <t>prog_char string_53[] PROGMEM = "   nonchalant   ";</t>
   </si>
   <si>
-    <t>prog_char string_54[] PROGMEM = "    neutral    ";</t>
-  </si>
-  <si>
     <t>prog_char string_55[] PROGMEM = "    reserved    ";</t>
   </si>
   <si>
-    <t>prog_char string_56[] PROGMEM = "     weary     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_57[] PROGMEM = "     bored     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_58[] PROGMEM = "  preoccupied  ";</t>
-  </si>
-  <si>
-    <t>prog_char string_59[] PROGMEM = "   insulting   ";</t>
-  </si>
-  <si>
     <t>prog_char string_60[] PROGMEM = "      cold      ";</t>
   </si>
   <si>
-    <t>prog_char string_61[] PROGMEM = " disinterested ";</t>
-  </si>
-  <si>
     <t>prog_char string_62[] PROGMEM = "    lifeless    ";</t>
   </si>
   <si>
-    <t>prog_char string_63[] PROGMEM = "     lousy     ";</t>
-  </si>
-  <si>
     <t>prog_char string_64[] PROGMEM = "  disappointed  ";</t>
   </si>
   <si>
-    <t>prog_char string_65[] PROGMEM = "  discouraged  ";</t>
-  </si>
-  <si>
-    <t>prog_char string_66[] PROGMEM = "    ashamed    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_67[] PROGMEM = "   powerless   ";</t>
-  </si>
-  <si>
     <t>prog_char string_68[] PROGMEM = "   diminished   ";</t>
   </si>
   <si>
@@ -2717,15 +2444,9 @@
     <t>prog_char string_71[] PROGMEM = "  dissatisfied  ";</t>
   </si>
   <si>
-    <t>prog_char string_72[] PROGMEM = "   miserable   ";</t>
-  </si>
-  <si>
     <t>prog_char string_73[] PROGMEM = "   detestable   ";</t>
   </si>
   <si>
-    <t>prog_char string_74[] PROGMEM = "   repugnant   ";</t>
-  </si>
-  <si>
     <t>prog_char string_75[] PROGMEM = "   despicable   ";</t>
   </si>
   <si>
@@ -2741,51 +2462,15 @@
     <t>prog_char string_79[] PROGMEM = "   in despair   ";</t>
   </si>
   <si>
-    <t>prog_char string_80[] PROGMEM = "     sulky     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_81[] PROGMEM = "    annoyed    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_82[] PROGMEM = "      bad      ";</t>
-  </si>
-  <si>
-    <t>prog_char string_84[] PROGMEM = "    fearful    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_85[] PROGMEM = "   terrified   ";</t>
-  </si>
-  <si>
     <t>prog_char string_86[] PROGMEM = "   suspicious   ";</t>
   </si>
   <si>
-    <t>prog_char string_87[] PROGMEM = "    anxious    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_88[] PROGMEM = "    alarmed    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_89[] PROGMEM = "     panic     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_90[] PROGMEM = "    nervous    ";</t>
-  </si>
-  <si>
     <t>prog_char string_91[] PROGMEM = "     scared     ";</t>
   </si>
   <si>
-    <t>prog_char string_92[] PROGMEM = "    worried    ";</t>
-  </si>
-  <si>
     <t>prog_char string_93[] PROGMEM = "   frightened   ";</t>
   </si>
   <si>
-    <t>prog_char string_94[] PROGMEM = "     timid     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_95[] PROGMEM = "     shaky     ";</t>
-  </si>
-  <si>
     <t>prog_char string_96[] PROGMEM = "    restless    ";</t>
   </si>
   <si>
@@ -2795,54 +2480,15 @@
     <t>prog_char string_98[] PROGMEM = "    cowardly    ";</t>
   </si>
   <si>
-    <t>prog_char string_99[] PROGMEM = "    quaking    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_100[] PROGMEM = "    menaced    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_101[] PROGMEM = "    hateful    ";</t>
-  </si>
-  <si>
     <t>prog_char string_102[] PROGMEM = "      wary      ";</t>
   </si>
   <si>
-    <t>prog_char string_103[] PROGMEM = "   uncertain   ";</t>
-  </si>
-  <si>
     <t>prog_char string_104[] PROGMEM = "   indecisive   ";</t>
   </si>
   <si>
-    <t>prog_char string_105[] PROGMEM = "   perplexed   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_106[] PROGMEM = "  embarrassed  ";</t>
-  </si>
-  <si>
-    <t>prog_char string_107[] PROGMEM = "      shy      ";</t>
-  </si>
-  <si>
-    <t>prog_char string_108[] PROGMEM = "   stupefied   ";</t>
-  </si>
-  <si>
     <t>prog_char string_109[] PROGMEM = "   unpleasant   ";</t>
   </si>
   <si>
-    <t>prog_char string_110[] PROGMEM = " disillusioned ";</t>
-  </si>
-  <si>
-    <t>prog_char string_111[] PROGMEM = "  unbelieving  ";</t>
-  </si>
-  <si>
-    <t>prog_char string_112[] PROGMEM = "   skeptical   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_113[] PROGMEM = "  distrustful  ";</t>
-  </si>
-  <si>
-    <t>prog_char string_114[] PROGMEM = "   misgiving   ";</t>
-  </si>
-  <si>
     <t>prog_char string_115[] PROGMEM = "      lost      ";</t>
   </si>
   <si>
@@ -2852,18 +2498,6 @@
     <t>prog_char string_117[] PROGMEM = "     uneasy     ";</t>
   </si>
   <si>
-    <t>prog_char string_118[] PROGMEM = "     tense     ";</t>
-  </si>
-  <si>
-    <t>prog_char string_119[] PROGMEM = "   offensive   ";</t>
-  </si>
-  <si>
-    <t>prog_char string_120[] PROGMEM = "    crushed    ";</t>
-  </si>
-  <si>
-    <t>prog_char string_121[] PROGMEM = "   tormented   ";</t>
-  </si>
-  <si>
     <t>prog_char string_122[] PROGMEM = "    deprived    ";</t>
   </si>
   <si>
@@ -2876,15 +2510,9 @@
     <t>prog_char string_125[] PROGMEM = "    rejected    ";</t>
   </si>
   <si>
-    <t>prog_char string_126[] PROGMEM = "    injured    ";</t>
-  </si>
-  <si>
     <t>prog_char string_127[] PROGMEM = "    offended    ";</t>
   </si>
   <si>
-    <t>prog_char string_128[] PROGMEM = "   afflicted   ";</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -2934,6 +2562,378 @@
   </si>
   <si>
     <t>Good and Bad words as values (in order)</t>
+  </si>
+  <si>
+    <t>prog_char string_129[] PROGMEM = " understanding  ";</t>
+  </si>
+  <si>
+    <t>prog_char string_133[] PROGMEM = "  sympathetic   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_135[] PROGMEM = "   receptive    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_136[] PROGMEM = "   accepting    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_139[] PROGMEM = "  considerate   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_141[] PROGMEM = "   sensitive    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_143[] PROGMEM = "    devoted     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_144[] PROGMEM = "   attracted    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_148[] PROGMEM = "    touched     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_150[] PROGMEM = "     close      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_151[] PROGMEM = "     loved      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_152[] PROGMEM = "   comforted    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_154[] PROGMEM = "     great      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_155[] PROGMEM = "      gay       ";</t>
+  </si>
+  <si>
+    <t>prog_char string_157[] PROGMEM = "     lucky      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_158[] PROGMEM = "   fortunate    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_159[] PROGMEM = "   delighted    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_160[] PROGMEM = "   overjoyed    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_161[] PROGMEM = "    gleeful     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_163[] PROGMEM = "   important    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_164[] PROGMEM = "    festive     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_168[] PROGMEM = "     sunny      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_169[] PROGMEM = "     merry      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_172[] PROGMEM = "   concerned    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_175[] PROGMEM = "   intrigued    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_177[] PROGMEM = "  inquisitive   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_180[] PROGMEM = "   engrossed    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_181[] PROGMEM = "    curious     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_182[] PROGMEM = "    playful     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_184[] PROGMEM = "   energetic    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_185[] PROGMEM = "   liberated    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_186[] PROGMEM = "  provocative   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_191[] PROGMEM = "   wonderful    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_192[] PROGMEM = "     eager      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_194[] PROGMEM = "    earnest     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_196[] PROGMEM = "    anxious     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_199[] PROGMEM = "    excited     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_202[] PROGMEM = "     brave      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_205[] PROGMEM = "  re-enforced   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_206[] PROGMEM = "    hopeful     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_209[] PROGMEM = "    at ease     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_210[] PROGMEM = "  comfortable   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_211[] PROGMEM = "    pleased     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_214[] PROGMEM = "   surprised    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_215[] PROGMEM = "    content     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_216[] PROGMEM = "     quiet      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_217[] PROGMEM = "    relaxed     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_219[] PROGMEM = " free and easy  ";</t>
+  </si>
+  <si>
+    <t>prog_char string_221[] PROGMEM = "    blessed     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_222[] PROGMEM = "   reassured    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_226[] PROGMEM = "    dynamic     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_227[] PROGMEM = "   tenacious    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_228[] PROGMEM = "     hardy      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_0[] PROGMEM = "   irritated    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_1[] PROGMEM = "    enraged     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_5[] PROGMEM = "  heartbroken   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_9[] PROGMEM = "    wronged     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_10[] PROGMEM = "   alienated    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_11[] PROGMEM = "   incapable    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_12[] PROGMEM = "     alone      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_14[] PROGMEM = "   paralyzed    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_16[] PROGMEM = "    useless     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_19[] PROGMEM = "     empty      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_21[] PROGMEM = "    despair     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_23[] PROGMEM = "   resentful    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_28[] PROGMEM = "   in a stew    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_29[] PROGMEM = "   dominated    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_30[] PROGMEM = "    tearful     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_31[] PROGMEM = "   sorrowful    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_32[] PROGMEM = "     grief      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_34[] PROGMEM = "    anguish     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_36[] PROGMEM = "   desperate    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_37[] PROGMEM = "    unhappy     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_39[] PROGMEM = "    grieved     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_45[] PROGMEM = "     cross      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_46[] PROGMEM = "   worked up    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_47[] PROGMEM = "    boiling     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_48[] PROGMEM = "    hostile     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_50[] PROGMEM = "   indignant    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_51[] PROGMEM = "  insensitive   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_54[] PROGMEM = "    neutral     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_56[] PROGMEM = "     weary      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_57[] PROGMEM = "     bored      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_58[] PROGMEM = "  preoccupied   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_59[] PROGMEM = "   insulting    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_61[] PROGMEM = " disinterested  ";</t>
+  </si>
+  <si>
+    <t>prog_char string_63[] PROGMEM = "     lousy      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_65[] PROGMEM = "  discouraged   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_66[] PROGMEM = "    ashamed     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_67[] PROGMEM = "   powerless    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_72[] PROGMEM = "   miserable    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_74[] PROGMEM = "   repugnant    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_80[] PROGMEM = "     sulky      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_81[] PROGMEM = "    annoyed     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_82[] PROGMEM = "      bad       ";</t>
+  </si>
+  <si>
+    <t>prog_char string_83[] PROGMEM = "a sense of loss ";</t>
+  </si>
+  <si>
+    <t>prog_char string_84[] PROGMEM = "    fearful     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_85[] PROGMEM = "   terrified    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_87[] PROGMEM = "    anxious     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_88[] PROGMEM = "    alarmed     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_89[] PROGMEM = "     panic      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_90[] PROGMEM = "    nervous     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_92[] PROGMEM = "    worried     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_94[] PROGMEM = "     timid      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_95[] PROGMEM = "     shaky      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_99[] PROGMEM = "    quaking     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_100[] PROGMEM = "    menaced     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_101[] PROGMEM = "    hateful     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_103[] PROGMEM = "   uncertain    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_105[] PROGMEM = "   perplexed    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_106[] PROGMEM = "  embarrassed   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_107[] PROGMEM = "      shy       ";</t>
+  </si>
+  <si>
+    <t>prog_char string_108[] PROGMEM = "   stupefied    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_110[] PROGMEM = " disillusioned  ";</t>
+  </si>
+  <si>
+    <t>prog_char string_111[] PROGMEM = "  unbelieving   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_112[] PROGMEM = "   skeptical    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_113[] PROGMEM = "  distrustful   ";</t>
+  </si>
+  <si>
+    <t>prog_char string_114[] PROGMEM = "   misgiving    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_118[] PROGMEM = "     tense      ";</t>
+  </si>
+  <si>
+    <t>prog_char string_119[] PROGMEM = "   offensive    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_120[] PROGMEM = "    crushed     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_121[] PROGMEM = "   tormented    ";</t>
+  </si>
+  <si>
+    <t>prog_char string_126[] PROGMEM = "    injured     ";</t>
+  </si>
+  <si>
+    <t>prog_char string_128[] PROGMEM = "   afflicted    ";</t>
   </si>
 </sst>
 </file>
@@ -2949,12 +2949,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2969,7 +2981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2984,83 +2996,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3377,58 +3319,58 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>954</v>
+        <v>830</v>
       </c>
       <c r="B1" t="s">
-        <v>955</v>
+        <v>831</v>
       </c>
       <c r="C1" t="s">
-        <v>956</v>
+        <v>832</v>
       </c>
       <c r="D1" t="s">
-        <v>957</v>
+        <v>833</v>
       </c>
       <c r="E1" t="s">
-        <v>958</v>
+        <v>834</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>959</v>
+        <v>835</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>958</v>
+        <v>834</v>
       </c>
       <c r="H1" t="s">
-        <v>957</v>
+        <v>833</v>
       </c>
       <c r="I1" t="s">
-        <v>960</v>
+        <v>836</v>
       </c>
       <c r="J1" t="s">
-        <v>961</v>
+        <v>837</v>
       </c>
       <c r="K1" t="s">
-        <v>962</v>
+        <v>838</v>
       </c>
       <c r="L1" t="s">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="M1" t="s">
-        <v>964</v>
+        <v>840</v>
       </c>
       <c r="N1" t="s">
-        <v>965</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3452,8 +3394,8 @@
         <v>101</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>REPT(" ",((16-J2)/2))</f>
-        <v xml:space="preserve">   </v>
+        <f>IF(LEN(E2)*2+LEN(F2)&gt;15,REPT(" ",((16-J2)/2)),REPT(" ",((16-J2)/2)+1))</f>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H2" t="s">
         <v>229</v>
@@ -3467,18 +3409,18 @@
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE(E2,F2,G2)</f>
-        <v xml:space="preserve">   irritated   </v>
+        <v xml:space="preserve">   irritated    </v>
       </c>
       <c r="L2">
         <f>LEN(K2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2)</f>
-        <v>prog_char string_0[] PROGMEM = "   irritated   ";</v>
+        <v>prog_char string_0[] PROGMEM = "   irritated    ";</v>
       </c>
       <c r="N2" t="s">
-        <v>826</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3502,8 +3444,8 @@
         <v>104</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G66" si="2">REPT(" ",((16-J3)/2))</f>
-        <v xml:space="preserve">    </v>
+        <f t="shared" ref="G3:G66" si="2">IF(LEN(E3)*2+LEN(F3)&gt;15,REPT(" ",((16-J3)/2)),REPT(" ",((16-J3)/2)+1))</f>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H3" t="s">
         <v>229</v>
@@ -3517,18 +3459,18 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K66" si="3">CONCATENATE(E3,F3,G3)</f>
-        <v xml:space="preserve">    enraged    </v>
+        <v xml:space="preserve">    enraged     </v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="4">LEN(K3)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M66" si="5">CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3)</f>
-        <v>prog_char string_1[] PROGMEM = "    enraged    ";</v>
+        <v>prog_char string_1[] PROGMEM = "    enraged     ";</v>
       </c>
       <c r="N3" t="s">
-        <v>827</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3578,7 +3520,7 @@
         <v>prog_char string_2[] PROGMEM = "     bitter     ";</v>
       </c>
       <c r="N4" t="s">
-        <v>828</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3628,7 +3570,7 @@
         <v>prog_char string_3[] PROGMEM = "     aching     ";</v>
       </c>
       <c r="N5" t="s">
-        <v>829</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3678,7 +3620,7 @@
         <v>prog_char string_4[] PROGMEM = "   victimized   ";</v>
       </c>
       <c r="N6" t="s">
-        <v>830</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3703,7 +3645,7 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H7" t="s">
         <v>229</v>
@@ -3717,18 +3659,18 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  heartbroken  </v>
+        <v xml:space="preserve">  heartbroken   </v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_5[] PROGMEM = "  heartbroken  ";</v>
+        <v>prog_char string_5[] PROGMEM = "  heartbroken   ";</v>
       </c>
       <c r="N7" t="s">
-        <v>831</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3778,7 +3720,7 @@
         <v>prog_char string_6[] PROGMEM = "    agonized    ";</v>
       </c>
       <c r="N8" t="s">
-        <v>832</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3828,7 +3770,7 @@
         <v>prog_char string_7[] PROGMEM = "    appalled    ";</v>
       </c>
       <c r="N9" t="s">
-        <v>833</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3878,7 +3820,7 @@
         <v>prog_char string_8[] PROGMEM = "   humiliated   ";</v>
       </c>
       <c r="N10" t="s">
-        <v>834</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3903,7 +3845,7 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H11" t="s">
         <v>229</v>
@@ -3917,18 +3859,18 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    wronged    </v>
+        <v xml:space="preserve">    wronged     </v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_9[] PROGMEM = "    wronged    ";</v>
+        <v>prog_char string_9[] PROGMEM = "    wronged     ";</v>
       </c>
       <c r="N11" t="s">
-        <v>835</v>
+        <v>903</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3953,7 +3895,7 @@
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H12" t="s">
         <v>229</v>
@@ -3967,18 +3909,18 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   alienated   </v>
+        <v xml:space="preserve">   alienated    </v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_10[] PROGMEM = "   alienated   ";</v>
+        <v>prog_char string_10[] PROGMEM = "   alienated    ";</v>
       </c>
       <c r="N12" t="s">
-        <v>836</v>
+        <v>904</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4003,7 +3945,7 @@
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H13" t="s">
         <v>229</v>
@@ -4017,18 +3959,18 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   incapable   </v>
+        <v xml:space="preserve">   incapable    </v>
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_11[] PROGMEM = "   incapable   ";</v>
+        <v>prog_char string_11[] PROGMEM = "   incapable    ";</v>
       </c>
       <c r="N13" t="s">
-        <v>837</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4053,7 +3995,7 @@
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H14" t="s">
         <v>229</v>
@@ -4067,18 +4009,18 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     alone     </v>
+        <v xml:space="preserve">     alone      </v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_12[] PROGMEM = "     alone     ";</v>
+        <v>prog_char string_12[] PROGMEM = "     alone      ";</v>
       </c>
       <c r="N14" t="s">
-        <v>838</v>
+        <v>906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4128,7 +4070,7 @@
         <v>prog_char string_13[] PROGMEM = "   aggressive   ";</v>
       </c>
       <c r="N15" t="s">
-        <v>839</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4153,7 +4095,7 @@
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H16" t="s">
         <v>229</v>
@@ -4167,18 +4109,18 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   paralyzed   </v>
+        <v xml:space="preserve">   paralyzed    </v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_14[] PROGMEM = "   paralyzed   ";</v>
+        <v>prog_char string_14[] PROGMEM = "   paralyzed    ";</v>
       </c>
       <c r="N16" t="s">
-        <v>840</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4228,7 +4170,7 @@
         <v>prog_char string_15[] PROGMEM = "    fatigued    ";</v>
       </c>
       <c r="N17" t="s">
-        <v>841</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4253,7 +4195,7 @@
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H18" t="s">
         <v>229</v>
@@ -4267,18 +4209,18 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    useless    </v>
+        <v xml:space="preserve">    useless     </v>
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_16[] PROGMEM = "    useless    ";</v>
+        <v>prog_char string_16[] PROGMEM = "    useless     ";</v>
       </c>
       <c r="N18" t="s">
-        <v>842</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4328,7 +4270,7 @@
         <v>prog_char string_17[] PROGMEM = "    inferior    ";</v>
       </c>
       <c r="N19" t="s">
-        <v>843</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4378,7 +4320,7 @@
         <v>prog_char string_18[] PROGMEM = "   vulnerable   ";</v>
       </c>
       <c r="N20" t="s">
-        <v>844</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4403,7 +4345,7 @@
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H21" t="s">
         <v>229</v>
@@ -4417,18 +4359,18 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     empty     </v>
+        <v xml:space="preserve">     empty      </v>
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_19[] PROGMEM = "     empty     ";</v>
+        <v>prog_char string_19[] PROGMEM = "     empty      ";</v>
       </c>
       <c r="N21" t="s">
-        <v>845</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4478,7 +4420,7 @@
         <v>prog_char string_20[] PROGMEM = "     forced     ";</v>
       </c>
       <c r="N22" t="s">
-        <v>846</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4503,7 +4445,7 @@
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H23" t="s">
         <v>229</v>
@@ -4517,18 +4459,18 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    despair    </v>
+        <v xml:space="preserve">    despair     </v>
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_21[] PROGMEM = "    despair    ";</v>
+        <v>prog_char string_21[] PROGMEM = "    despair     ";</v>
       </c>
       <c r="N23" t="s">
-        <v>847</v>
+        <v>910</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4578,7 +4520,7 @@
         <v>prog_char string_22[] PROGMEM = "   frustrated   ";</v>
       </c>
       <c r="N24" t="s">
-        <v>848</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4603,7 +4545,7 @@
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H25" t="s">
         <v>229</v>
@@ -4617,18 +4559,18 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   resentful   </v>
+        <v xml:space="preserve">   resentful    </v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_23[] PROGMEM = "   resentful   ";</v>
+        <v>prog_char string_23[] PROGMEM = "   resentful    ";</v>
       </c>
       <c r="N25" t="s">
-        <v>849</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4678,7 +4620,7 @@
         <v>prog_char string_24[] PROGMEM = "   distressed   ";</v>
       </c>
       <c r="N26" t="s">
-        <v>850</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4728,7 +4670,7 @@
         <v>prog_char string_25[] PROGMEM = "     woeful     ";</v>
       </c>
       <c r="N27" t="s">
-        <v>851</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4778,7 +4720,7 @@
         <v>prog_char string_26[] PROGMEM = "    pathetic    ";</v>
       </c>
       <c r="N28" t="s">
-        <v>852</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4828,7 +4770,7 @@
         <v>prog_char string_27[] PROGMEM = "     tragic     ";</v>
       </c>
       <c r="N29" t="s">
-        <v>853</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4853,7 +4795,7 @@
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H30" t="s">
         <v>229</v>
@@ -4867,18 +4809,18 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   in a stew   </v>
+        <v xml:space="preserve">   in a stew    </v>
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_28[] PROGMEM = "   in a stew   ";</v>
+        <v>prog_char string_28[] PROGMEM = "   in a stew    ";</v>
       </c>
       <c r="N30" t="s">
-        <v>854</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4903,7 +4845,7 @@
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H31" t="s">
         <v>229</v>
@@ -4917,18 +4859,18 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   dominated   </v>
+        <v xml:space="preserve">   dominated    </v>
       </c>
       <c r="L31">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_29[] PROGMEM = "   dominated   ";</v>
+        <v>prog_char string_29[] PROGMEM = "   dominated    ";</v>
       </c>
       <c r="N31" t="s">
-        <v>855</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4953,7 +4895,7 @@
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H32" t="s">
         <v>229</v>
@@ -4967,18 +4909,18 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    tearful    </v>
+        <v xml:space="preserve">    tearful     </v>
       </c>
       <c r="L32">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_30[] PROGMEM = "    tearful    ";</v>
+        <v>prog_char string_30[] PROGMEM = "    tearful     ";</v>
       </c>
       <c r="N32" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -5003,7 +4945,7 @@
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H33" t="s">
         <v>229</v>
@@ -5017,18 +4959,18 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   sorrowful   </v>
+        <v xml:space="preserve">   sorrowful    </v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_31[] PROGMEM = "   sorrowful   ";</v>
+        <v>prog_char string_31[] PROGMEM = "   sorrowful    ";</v>
       </c>
       <c r="N33" t="s">
-        <v>857</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -5053,7 +4995,7 @@
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H34" t="s">
         <v>229</v>
@@ -5067,18 +5009,18 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     grief     </v>
+        <v xml:space="preserve">     grief      </v>
       </c>
       <c r="L34">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_32[] PROGMEM = "     grief     ";</v>
+        <v>prog_char string_32[] PROGMEM = "     grief      ";</v>
       </c>
       <c r="N34" t="s">
-        <v>858</v>
+        <v>916</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -5128,7 +5070,7 @@
         <v>prog_char string_33[] PROGMEM = "    inflamed    ";</v>
       </c>
       <c r="N35" t="s">
-        <v>859</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -5153,7 +5095,7 @@
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H36" t="s">
         <v>229</v>
@@ -5167,18 +5109,18 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    anguish    </v>
+        <v xml:space="preserve">    anguish     </v>
       </c>
       <c r="L36">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_34[] PROGMEM = "    anguish    ";</v>
+        <v>prog_char string_34[] PROGMEM = "    anguish     ";</v>
       </c>
       <c r="N36" t="s">
-        <v>860</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -5228,7 +5170,7 @@
         <v>prog_char string_35[] PROGMEM = "    desolate    ";</v>
       </c>
       <c r="N37" t="s">
-        <v>861</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -5253,7 +5195,7 @@
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H38" t="s">
         <v>229</v>
@@ -5267,18 +5209,18 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   desperate   </v>
+        <v xml:space="preserve">   desperate    </v>
       </c>
       <c r="L38">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_36[] PROGMEM = "   desperate   ";</v>
+        <v>prog_char string_36[] PROGMEM = "   desperate    ";</v>
       </c>
       <c r="N38" t="s">
-        <v>862</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5303,7 +5245,7 @@
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H39" t="s">
         <v>229</v>
@@ -5317,18 +5259,18 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    unhappy    </v>
+        <v xml:space="preserve">    unhappy     </v>
       </c>
       <c r="L39">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_37[] PROGMEM = "    unhappy    ";</v>
+        <v>prog_char string_37[] PROGMEM = "    unhappy     ";</v>
       </c>
       <c r="N39" t="s">
-        <v>863</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -5378,7 +5320,7 @@
         <v>prog_char string_38[] PROGMEM = "     lonely     ";</v>
       </c>
       <c r="N40" t="s">
-        <v>864</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5403,7 +5345,7 @@
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H41" t="s">
         <v>229</v>
@@ -5417,18 +5359,18 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    grieved    </v>
+        <v xml:space="preserve">    grieved     </v>
       </c>
       <c r="L41">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_39[] PROGMEM = "    grieved    ";</v>
+        <v>prog_char string_39[] PROGMEM = "    grieved     ";</v>
       </c>
       <c r="N41" t="s">
-        <v>865</v>
+        <v>920</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -5478,7 +5420,7 @@
         <v>prog_char string_40[] PROGMEM = "    mournful    ";</v>
       </c>
       <c r="N42" t="s">
-        <v>866</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -5528,7 +5470,7 @@
         <v>prog_char string_41[] PROGMEM = "    dismayed    ";</v>
       </c>
       <c r="N43" t="s">
-        <v>867</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -5578,7 +5520,7 @@
         <v>prog_char string_42[] PROGMEM = "    provoked    ";</v>
       </c>
       <c r="N44" t="s">
-        <v>868</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -5628,7 +5570,7 @@
         <v>prog_char string_43[] PROGMEM = "    incensed    ";</v>
       </c>
       <c r="N45" t="s">
-        <v>869</v>
+        <v>794</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -5678,7 +5620,7 @@
         <v>prog_char string_44[] PROGMEM = "   infuriated   ";</v>
       </c>
       <c r="N46" t="s">
-        <v>870</v>
+        <v>795</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5703,7 +5645,7 @@
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H47" t="s">
         <v>229</v>
@@ -5717,18 +5659,18 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     cross     </v>
+        <v xml:space="preserve">     cross      </v>
       </c>
       <c r="L47">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_45[] PROGMEM = "     cross     ";</v>
+        <v>prog_char string_45[] PROGMEM = "     cross      ";</v>
       </c>
       <c r="N47" t="s">
-        <v>871</v>
+        <v>921</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5753,7 +5695,7 @@
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H48" t="s">
         <v>229</v>
@@ -5767,18 +5709,18 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   worked up   </v>
+        <v xml:space="preserve">   worked up    </v>
       </c>
       <c r="L48">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_46[] PROGMEM = "   worked up   ";</v>
+        <v>prog_char string_46[] PROGMEM = "   worked up    ";</v>
       </c>
       <c r="N48" t="s">
-        <v>872</v>
+        <v>922</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -5803,7 +5745,7 @@
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H49" t="s">
         <v>229</v>
@@ -5817,18 +5759,18 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    boiling    </v>
+        <v xml:space="preserve">    boiling     </v>
       </c>
       <c r="L49">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_47[] PROGMEM = "    boiling    ";</v>
+        <v>prog_char string_47[] PROGMEM = "    boiling     ";</v>
       </c>
       <c r="N49" t="s">
-        <v>873</v>
+        <v>923</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5853,7 +5795,7 @@
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H50" t="s">
         <v>229</v>
@@ -5867,18 +5809,18 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    hostile    </v>
+        <v xml:space="preserve">    hostile     </v>
       </c>
       <c r="L50">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_48[] PROGMEM = "    hostile    ";</v>
+        <v>prog_char string_48[] PROGMEM = "    hostile     ";</v>
       </c>
       <c r="N50" t="s">
-        <v>874</v>
+        <v>924</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5928,7 +5870,7 @@
         <v>prog_char string_49[] PROGMEM = "     fuming     ";</v>
       </c>
       <c r="N51" t="s">
-        <v>875</v>
+        <v>796</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5953,7 +5895,7 @@
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H52" t="s">
         <v>229</v>
@@ -5967,18 +5909,18 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   indignant   </v>
+        <v xml:space="preserve">   indignant    </v>
       </c>
       <c r="L52">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_50[] PROGMEM = "   indignant   ";</v>
+        <v>prog_char string_50[] PROGMEM = "   indignant    ";</v>
       </c>
       <c r="N52" t="s">
-        <v>876</v>
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -6003,7 +5945,7 @@
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H53" t="s">
         <v>229</v>
@@ -6017,18 +5959,18 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  insensitive  </v>
+        <v xml:space="preserve">  insensitive   </v>
       </c>
       <c r="L53">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_51[] PROGMEM = "  insensitive  ";</v>
+        <v>prog_char string_51[] PROGMEM = "  insensitive   ";</v>
       </c>
       <c r="N53" t="s">
-        <v>877</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -6078,7 +6020,7 @@
         <v>prog_char string_52[] PROGMEM = "      dull      ";</v>
       </c>
       <c r="N54" t="s">
-        <v>878</v>
+        <v>797</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -6128,7 +6070,7 @@
         <v>prog_char string_53[] PROGMEM = "   nonchalant   ";</v>
       </c>
       <c r="N55" t="s">
-        <v>879</v>
+        <v>798</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -6153,7 +6095,7 @@
       </c>
       <c r="G56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H56" t="s">
         <v>229</v>
@@ -6167,18 +6109,18 @@
       </c>
       <c r="K56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    neutral    </v>
+        <v xml:space="preserve">    neutral     </v>
       </c>
       <c r="L56">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_54[] PROGMEM = "    neutral    ";</v>
+        <v>prog_char string_54[] PROGMEM = "    neutral     ";</v>
       </c>
       <c r="N56" t="s">
-        <v>880</v>
+        <v>927</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -6228,7 +6170,7 @@
         <v>prog_char string_55[] PROGMEM = "    reserved    ";</v>
       </c>
       <c r="N57" t="s">
-        <v>881</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -6253,7 +6195,7 @@
       </c>
       <c r="G58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H58" t="s">
         <v>229</v>
@@ -6267,18 +6209,18 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     weary     </v>
+        <v xml:space="preserve">     weary      </v>
       </c>
       <c r="L58">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_56[] PROGMEM = "     weary     ";</v>
+        <v>prog_char string_56[] PROGMEM = "     weary      ";</v>
       </c>
       <c r="N58" t="s">
-        <v>882</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -6303,7 +6245,7 @@
       </c>
       <c r="G59" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H59" t="s">
         <v>229</v>
@@ -6317,18 +6259,18 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     bored     </v>
+        <v xml:space="preserve">     bored      </v>
       </c>
       <c r="L59">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_57[] PROGMEM = "     bored     ";</v>
+        <v>prog_char string_57[] PROGMEM = "     bored      ";</v>
       </c>
       <c r="N59" t="s">
-        <v>883</v>
+        <v>929</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -6353,7 +6295,7 @@
       </c>
       <c r="G60" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H60" t="s">
         <v>229</v>
@@ -6367,18 +6309,18 @@
       </c>
       <c r="K60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  preoccupied  </v>
+        <v xml:space="preserve">  preoccupied   </v>
       </c>
       <c r="L60">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_58[] PROGMEM = "  preoccupied  ";</v>
+        <v>prog_char string_58[] PROGMEM = "  preoccupied   ";</v>
       </c>
       <c r="N60" t="s">
-        <v>884</v>
+        <v>930</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -6403,7 +6345,7 @@
       </c>
       <c r="G61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H61" t="s">
         <v>229</v>
@@ -6417,18 +6359,18 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   insulting   </v>
+        <v xml:space="preserve">   insulting    </v>
       </c>
       <c r="L61">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_59[] PROGMEM = "   insulting   ";</v>
+        <v>prog_char string_59[] PROGMEM = "   insulting    ";</v>
       </c>
       <c r="N61" t="s">
-        <v>885</v>
+        <v>931</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -6478,10 +6420,10 @@
         <v>prog_char string_60[] PROGMEM = "      cold      ";</v>
       </c>
       <c r="N62" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="30">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>511</v>
       </c>
@@ -6503,7 +6445,7 @@
       </c>
       <c r="G63" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="H63" t="s">
         <v>229</v>
@@ -6517,18 +6459,18 @@
       </c>
       <c r="K63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> disinterested </v>
+        <v xml:space="preserve"> disinterested  </v>
       </c>
       <c r="L63">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_61[] PROGMEM = " disinterested ";</v>
+        <v>prog_char string_61[] PROGMEM = " disinterested  ";</v>
       </c>
       <c r="N63" t="s">
-        <v>887</v>
+        <v>932</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -6578,7 +6520,7 @@
         <v>prog_char string_62[] PROGMEM = "    lifeless    ";</v>
       </c>
       <c r="N64" t="s">
-        <v>888</v>
+        <v>801</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -6603,7 +6545,7 @@
       </c>
       <c r="G65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H65" t="s">
         <v>229</v>
@@ -6617,18 +6559,18 @@
       </c>
       <c r="K65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     lousy     </v>
+        <v xml:space="preserve">     lousy      </v>
       </c>
       <c r="L65">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_63[] PROGMEM = "     lousy     ";</v>
+        <v>prog_char string_63[] PROGMEM = "     lousy      ";</v>
       </c>
       <c r="N65" t="s">
-        <v>889</v>
+        <v>933</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -6678,7 +6620,7 @@
         <v>prog_char string_64[] PROGMEM = "  disappointed  ";</v>
       </c>
       <c r="N66" t="s">
-        <v>890</v>
+        <v>802</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -6702,8 +6644,8 @@
         <v>108</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" ref="G67:G130" si="9">REPT(" ",((16-J67)/2))</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="G67:G130" si="9">IF(LEN(E67)*2+LEN(F67)&gt;15,REPT(" ",((16-J67)/2)),REPT(" ",((16-J67)/2)+1))</f>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H67" t="s">
         <v>229</v>
@@ -6717,18 +6659,18 @@
       </c>
       <c r="K67" t="str">
         <f t="shared" ref="K67:K130" si="10">CONCATENATE(E67,F67,G67)</f>
-        <v xml:space="preserve">  discouraged  </v>
+        <v xml:space="preserve">  discouraged   </v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" si="11">LEN(K67)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" ref="M67:M130" si="12">CONCATENATE(A67,B67,C67,D67,E67,F67,G67,H67,I67)</f>
-        <v>prog_char string_65[] PROGMEM = "  discouraged  ";</v>
+        <v>prog_char string_65[] PROGMEM = "  discouraged   ";</v>
       </c>
       <c r="N67" t="s">
-        <v>891</v>
+        <v>934</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -6753,7 +6695,7 @@
       </c>
       <c r="G68" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H68" t="s">
         <v>229</v>
@@ -6767,18 +6709,18 @@
       </c>
       <c r="K68" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    ashamed    </v>
+        <v xml:space="preserve">    ashamed     </v>
       </c>
       <c r="L68">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_66[] PROGMEM = "    ashamed    ";</v>
+        <v>prog_char string_66[] PROGMEM = "    ashamed     ";</v>
       </c>
       <c r="N68" t="s">
-        <v>892</v>
+        <v>935</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -6803,7 +6745,7 @@
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H69" t="s">
         <v>229</v>
@@ -6817,18 +6759,18 @@
       </c>
       <c r="K69" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   powerless   </v>
+        <v xml:space="preserve">   powerless    </v>
       </c>
       <c r="L69">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_67[] PROGMEM = "   powerless   ";</v>
+        <v>prog_char string_67[] PROGMEM = "   powerless    ";</v>
       </c>
       <c r="N69" t="s">
-        <v>893</v>
+        <v>936</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -6878,7 +6820,7 @@
         <v>prog_char string_68[] PROGMEM = "   diminished   ";</v>
       </c>
       <c r="N70" t="s">
-        <v>894</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6928,7 +6870,7 @@
         <v>prog_char string_69[] PROGMEM = "     guilty     ";</v>
       </c>
       <c r="N71" t="s">
-        <v>895</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -6978,7 +6920,7 @@
         <v>prog_char string_70[] PROGMEM = "      sore      ";</v>
       </c>
       <c r="N72" t="s">
-        <v>896</v>
+        <v>805</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -7028,7 +6970,7 @@
         <v>prog_char string_71[] PROGMEM = "  dissatisfied  ";</v>
       </c>
       <c r="N73" t="s">
-        <v>897</v>
+        <v>806</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -7053,7 +6995,7 @@
       </c>
       <c r="G74" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H74" t="s">
         <v>229</v>
@@ -7067,18 +7009,18 @@
       </c>
       <c r="K74" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   miserable   </v>
+        <v xml:space="preserve">   miserable    </v>
       </c>
       <c r="L74">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_72[] PROGMEM = "   miserable   ";</v>
+        <v>prog_char string_72[] PROGMEM = "   miserable    ";</v>
       </c>
       <c r="N74" t="s">
-        <v>898</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -7128,7 +7070,7 @@
         <v>prog_char string_73[] PROGMEM = "   detestable   ";</v>
       </c>
       <c r="N75" t="s">
-        <v>899</v>
+        <v>807</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -7153,7 +7095,7 @@
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H76" t="s">
         <v>229</v>
@@ -7167,18 +7109,18 @@
       </c>
       <c r="K76" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   repugnant   </v>
+        <v xml:space="preserve">   repugnant    </v>
       </c>
       <c r="L76">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_74[] PROGMEM = "   repugnant   ";</v>
+        <v>prog_char string_74[] PROGMEM = "   repugnant    ";</v>
       </c>
       <c r="N76" t="s">
-        <v>900</v>
+        <v>938</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -7228,7 +7170,7 @@
         <v>prog_char string_75[] PROGMEM = "   despicable   ";</v>
       </c>
       <c r="N77" t="s">
-        <v>901</v>
+        <v>808</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -7278,7 +7220,7 @@
         <v>prog_char string_76[] PROGMEM = "   disgusting   ";</v>
       </c>
       <c r="N78" t="s">
-        <v>902</v>
+        <v>809</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -7328,7 +7270,7 @@
         <v>prog_char string_77[] PROGMEM = "   abominable   ";</v>
       </c>
       <c r="N79" t="s">
-        <v>903</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -7378,7 +7320,7 @@
         <v>prog_char string_78[] PROGMEM = "    terrible    ";</v>
       </c>
       <c r="N80" t="s">
-        <v>904</v>
+        <v>811</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -7428,7 +7370,7 @@
         <v>prog_char string_79[] PROGMEM = "   in despair   ";</v>
       </c>
       <c r="N81" t="s">
-        <v>905</v>
+        <v>812</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -7453,7 +7395,7 @@
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H82" t="s">
         <v>229</v>
@@ -7467,18 +7409,18 @@
       </c>
       <c r="K82" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">     sulky     </v>
+        <v xml:space="preserve">     sulky      </v>
       </c>
       <c r="L82">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_80[] PROGMEM = "     sulky     ";</v>
+        <v>prog_char string_80[] PROGMEM = "     sulky      ";</v>
       </c>
       <c r="N82" t="s">
-        <v>906</v>
+        <v>939</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -7503,7 +7445,7 @@
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H83" t="s">
         <v>229</v>
@@ -7517,18 +7459,18 @@
       </c>
       <c r="K83" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    annoyed    </v>
+        <v xml:space="preserve">    annoyed     </v>
       </c>
       <c r="L83">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M83" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_81[] PROGMEM = "    annoyed    ";</v>
+        <v>prog_char string_81[] PROGMEM = "    annoyed     ";</v>
       </c>
       <c r="N83" t="s">
-        <v>907</v>
+        <v>940</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -7553,7 +7495,7 @@
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      </v>
+        <v xml:space="preserve">       </v>
       </c>
       <c r="H84" t="s">
         <v>229</v>
@@ -7567,21 +7509,21 @@
       </c>
       <c r="K84" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">      bad      </v>
+        <v xml:space="preserve">      bad       </v>
       </c>
       <c r="L84">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M84" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_82[] PROGMEM = "      bad      ";</v>
+        <v>prog_char string_82[] PROGMEM = "      bad       ";</v>
       </c>
       <c r="N84" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="30">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>511</v>
       </c>
@@ -7603,7 +7545,7 @@
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H85" t="s">
         <v>229</v>
@@ -7617,18 +7559,18 @@
       </c>
       <c r="K85" t="str">
         <f t="shared" si="10"/>
-        <v>a sense of loss</v>
+        <v xml:space="preserve">a sense of loss </v>
       </c>
       <c r="L85">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M85" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_83[] PROGMEM = "a sense of loss";</v>
+        <v>prog_char string_83[] PROGMEM = "a sense of loss ";</v>
       </c>
       <c r="N85" t="s">
-        <v>724</v>
+        <v>942</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -7653,7 +7595,7 @@
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H86" t="s">
         <v>229</v>
@@ -7667,18 +7609,18 @@
       </c>
       <c r="K86" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    fearful    </v>
+        <v xml:space="preserve">    fearful     </v>
       </c>
       <c r="L86">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M86" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_84[] PROGMEM = "    fearful    ";</v>
+        <v>prog_char string_84[] PROGMEM = "    fearful     ";</v>
       </c>
       <c r="N86" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -7703,7 +7645,7 @@
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H87" t="s">
         <v>229</v>
@@ -7717,18 +7659,18 @@
       </c>
       <c r="K87" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   terrified   </v>
+        <v xml:space="preserve">   terrified    </v>
       </c>
       <c r="L87">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M87" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_85[] PROGMEM = "   terrified   ";</v>
+        <v>prog_char string_85[] PROGMEM = "   terrified    ";</v>
       </c>
       <c r="N87" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -7778,7 +7720,7 @@
         <v>prog_char string_86[] PROGMEM = "   suspicious   ";</v>
       </c>
       <c r="N88" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -7803,7 +7745,7 @@
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H89" t="s">
         <v>229</v>
@@ -7817,18 +7759,18 @@
       </c>
       <c r="K89" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    anxious    </v>
+        <v xml:space="preserve">    anxious     </v>
       </c>
       <c r="L89">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M89" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_87[] PROGMEM = "    anxious    ";</v>
+        <v>prog_char string_87[] PROGMEM = "    anxious     ";</v>
       </c>
       <c r="N89" t="s">
-        <v>912</v>
+        <v>945</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -7853,7 +7795,7 @@
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H90" t="s">
         <v>229</v>
@@ -7867,18 +7809,18 @@
       </c>
       <c r="K90" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    alarmed    </v>
+        <v xml:space="preserve">    alarmed     </v>
       </c>
       <c r="L90">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M90" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_88[] PROGMEM = "    alarmed    ";</v>
+        <v>prog_char string_88[] PROGMEM = "    alarmed     ";</v>
       </c>
       <c r="N90" t="s">
-        <v>913</v>
+        <v>946</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -7903,7 +7845,7 @@
       </c>
       <c r="G91" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H91" t="s">
         <v>229</v>
@@ -7917,18 +7859,18 @@
       </c>
       <c r="K91" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">     panic     </v>
+        <v xml:space="preserve">     panic      </v>
       </c>
       <c r="L91">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M91" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_89[] PROGMEM = "     panic     ";</v>
+        <v>prog_char string_89[] PROGMEM = "     panic      ";</v>
       </c>
       <c r="N91" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -7953,7 +7895,7 @@
       </c>
       <c r="G92" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H92" t="s">
         <v>229</v>
@@ -7967,18 +7909,18 @@
       </c>
       <c r="K92" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    nervous    </v>
+        <v xml:space="preserve">    nervous     </v>
       </c>
       <c r="L92">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M92" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_90[] PROGMEM = "    nervous    ";</v>
+        <v>prog_char string_90[] PROGMEM = "    nervous     ";</v>
       </c>
       <c r="N92" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -8028,7 +7970,7 @@
         <v>prog_char string_91[] PROGMEM = "     scared     ";</v>
       </c>
       <c r="N93" t="s">
-        <v>916</v>
+        <v>814</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -8053,7 +7995,7 @@
       </c>
       <c r="G94" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H94" t="s">
         <v>229</v>
@@ -8067,18 +8009,18 @@
       </c>
       <c r="K94" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    worried    </v>
+        <v xml:space="preserve">    worried     </v>
       </c>
       <c r="L94">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M94" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_92[] PROGMEM = "    worried    ";</v>
+        <v>prog_char string_92[] PROGMEM = "    worried     ";</v>
       </c>
       <c r="N94" t="s">
-        <v>917</v>
+        <v>949</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -8128,7 +8070,7 @@
         <v>prog_char string_93[] PROGMEM = "   frightened   ";</v>
       </c>
       <c r="N95" t="s">
-        <v>918</v>
+        <v>815</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -8153,7 +8095,7 @@
       </c>
       <c r="G96" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H96" t="s">
         <v>229</v>
@@ -8167,18 +8109,18 @@
       </c>
       <c r="K96" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">     timid     </v>
+        <v xml:space="preserve">     timid      </v>
       </c>
       <c r="L96">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M96" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_94[] PROGMEM = "     timid     ";</v>
+        <v>prog_char string_94[] PROGMEM = "     timid      ";</v>
       </c>
       <c r="N96" t="s">
-        <v>919</v>
+        <v>950</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -8203,7 +8145,7 @@
       </c>
       <c r="G97" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H97" t="s">
         <v>229</v>
@@ -8217,18 +8159,18 @@
       </c>
       <c r="K97" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">     shaky     </v>
+        <v xml:space="preserve">     shaky      </v>
       </c>
       <c r="L97">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M97" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_95[] PROGMEM = "     shaky     ";</v>
+        <v>prog_char string_95[] PROGMEM = "     shaky      ";</v>
       </c>
       <c r="N97" t="s">
-        <v>920</v>
+        <v>951</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -8278,7 +8220,7 @@
         <v>prog_char string_96[] PROGMEM = "    restless    ";</v>
       </c>
       <c r="N98" t="s">
-        <v>921</v>
+        <v>816</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -8328,7 +8270,7 @@
         <v>prog_char string_97[] PROGMEM = "   threatened   ";</v>
       </c>
       <c r="N99" t="s">
-        <v>922</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -8378,7 +8320,7 @@
         <v>prog_char string_98[] PROGMEM = "    cowardly    ";</v>
       </c>
       <c r="N100" t="s">
-        <v>923</v>
+        <v>818</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -8403,7 +8345,7 @@
       </c>
       <c r="G101" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H101" t="s">
         <v>229</v>
@@ -8417,18 +8359,18 @@
       </c>
       <c r="K101" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    quaking    </v>
+        <v xml:space="preserve">    quaking     </v>
       </c>
       <c r="L101">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M101" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_99[] PROGMEM = "    quaking    ";</v>
+        <v>prog_char string_99[] PROGMEM = "    quaking     ";</v>
       </c>
       <c r="N101" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -8453,7 +8395,7 @@
       </c>
       <c r="G102" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H102" t="s">
         <v>229</v>
@@ -8467,18 +8409,18 @@
       </c>
       <c r="K102" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    menaced    </v>
+        <v xml:space="preserve">    menaced     </v>
       </c>
       <c r="L102">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M102" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_100[] PROGMEM = "    menaced    ";</v>
+        <v>prog_char string_100[] PROGMEM = "    menaced     ";</v>
       </c>
       <c r="N102" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -8503,7 +8445,7 @@
       </c>
       <c r="G103" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H103" t="s">
         <v>229</v>
@@ -8517,18 +8459,18 @@
       </c>
       <c r="K103" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    hateful    </v>
+        <v xml:space="preserve">    hateful     </v>
       </c>
       <c r="L103">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M103" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_101[] PROGMEM = "    hateful    ";</v>
+        <v>prog_char string_101[] PROGMEM = "    hateful     ";</v>
       </c>
       <c r="N103" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -8578,7 +8520,7 @@
         <v>prog_char string_102[] PROGMEM = "      wary      ";</v>
       </c>
       <c r="N104" t="s">
-        <v>927</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -8603,7 +8545,7 @@
       </c>
       <c r="G105" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H105" t="s">
         <v>229</v>
@@ -8617,18 +8559,18 @@
       </c>
       <c r="K105" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   uncertain   </v>
+        <v xml:space="preserve">   uncertain    </v>
       </c>
       <c r="L105">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M105" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_103[] PROGMEM = "   uncertain   ";</v>
+        <v>prog_char string_103[] PROGMEM = "   uncertain    ";</v>
       </c>
       <c r="N105" t="s">
-        <v>928</v>
+        <v>955</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -8678,7 +8620,7 @@
         <v>prog_char string_104[] PROGMEM = "   indecisive   ";</v>
       </c>
       <c r="N106" t="s">
-        <v>929</v>
+        <v>820</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -8703,7 +8645,7 @@
       </c>
       <c r="G107" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H107" t="s">
         <v>229</v>
@@ -8717,18 +8659,18 @@
       </c>
       <c r="K107" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   perplexed   </v>
+        <v xml:space="preserve">   perplexed    </v>
       </c>
       <c r="L107">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M107" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_105[] PROGMEM = "   perplexed   ";</v>
+        <v>prog_char string_105[] PROGMEM = "   perplexed    ";</v>
       </c>
       <c r="N107" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -8753,7 +8695,7 @@
       </c>
       <c r="G108" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H108" t="s">
         <v>229</v>
@@ -8767,18 +8709,18 @@
       </c>
       <c r="K108" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">  embarrassed  </v>
+        <v xml:space="preserve">  embarrassed   </v>
       </c>
       <c r="L108">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M108" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_106[] PROGMEM = "  embarrassed  ";</v>
+        <v>prog_char string_106[] PROGMEM = "  embarrassed   ";</v>
       </c>
       <c r="N108" t="s">
-        <v>931</v>
+        <v>957</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -8803,7 +8745,7 @@
       </c>
       <c r="G109" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      </v>
+        <v xml:space="preserve">       </v>
       </c>
       <c r="H109" t="s">
         <v>229</v>
@@ -8817,18 +8759,18 @@
       </c>
       <c r="K109" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">      shy      </v>
+        <v xml:space="preserve">      shy       </v>
       </c>
       <c r="L109">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M109" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_107[] PROGMEM = "      shy      ";</v>
+        <v>prog_char string_107[] PROGMEM = "      shy       ";</v>
       </c>
       <c r="N109" t="s">
-        <v>932</v>
+        <v>958</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -8853,7 +8795,7 @@
       </c>
       <c r="G110" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H110" t="s">
         <v>229</v>
@@ -8867,18 +8809,18 @@
       </c>
       <c r="K110" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   stupefied   </v>
+        <v xml:space="preserve">   stupefied    </v>
       </c>
       <c r="L110">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M110" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_108[] PROGMEM = "   stupefied   ";</v>
+        <v>prog_char string_108[] PROGMEM = "   stupefied    ";</v>
       </c>
       <c r="N110" t="s">
-        <v>933</v>
+        <v>959</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -8928,7 +8870,7 @@
         <v>prog_char string_109[] PROGMEM = "   unpleasant   ";</v>
       </c>
       <c r="N111" t="s">
-        <v>934</v>
+        <v>821</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -8953,7 +8895,7 @@
       </c>
       <c r="G112" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="H112" t="s">
         <v>229</v>
@@ -8967,18 +8909,18 @@
       </c>
       <c r="K112" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> disillusioned </v>
+        <v xml:space="preserve"> disillusioned  </v>
       </c>
       <c r="L112">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M112" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_110[] PROGMEM = " disillusioned ";</v>
+        <v>prog_char string_110[] PROGMEM = " disillusioned  ";</v>
       </c>
       <c r="N112" t="s">
-        <v>935</v>
+        <v>960</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -9003,7 +8945,7 @@
       </c>
       <c r="G113" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H113" t="s">
         <v>229</v>
@@ -9017,18 +8959,18 @@
       </c>
       <c r="K113" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">  unbelieving  </v>
+        <v xml:space="preserve">  unbelieving   </v>
       </c>
       <c r="L113">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M113" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_111[] PROGMEM = "  unbelieving  ";</v>
+        <v>prog_char string_111[] PROGMEM = "  unbelieving   ";</v>
       </c>
       <c r="N113" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -9053,7 +8995,7 @@
       </c>
       <c r="G114" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H114" t="s">
         <v>229</v>
@@ -9067,18 +9009,18 @@
       </c>
       <c r="K114" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   skeptical   </v>
+        <v xml:space="preserve">   skeptical    </v>
       </c>
       <c r="L114">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M114" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_112[] PROGMEM = "   skeptical   ";</v>
+        <v>prog_char string_112[] PROGMEM = "   skeptical    ";</v>
       </c>
       <c r="N114" t="s">
-        <v>937</v>
+        <v>962</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -9103,7 +9045,7 @@
       </c>
       <c r="G115" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H115" t="s">
         <v>229</v>
@@ -9117,18 +9059,18 @@
       </c>
       <c r="K115" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">  distrustful  </v>
+        <v xml:space="preserve">  distrustful   </v>
       </c>
       <c r="L115">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M115" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_113[] PROGMEM = "  distrustful  ";</v>
+        <v>prog_char string_113[] PROGMEM = "  distrustful   ";</v>
       </c>
       <c r="N115" t="s">
-        <v>938</v>
+        <v>963</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -9153,7 +9095,7 @@
       </c>
       <c r="G116" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H116" t="s">
         <v>229</v>
@@ -9167,18 +9109,18 @@
       </c>
       <c r="K116" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   misgiving   </v>
+        <v xml:space="preserve">   misgiving    </v>
       </c>
       <c r="L116">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M116" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_114[] PROGMEM = "   misgiving   ";</v>
+        <v>prog_char string_114[] PROGMEM = "   misgiving    ";</v>
       </c>
       <c r="N116" t="s">
-        <v>939</v>
+        <v>964</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -9228,7 +9170,7 @@
         <v>prog_char string_115[] PROGMEM = "      lost      ";</v>
       </c>
       <c r="N117" t="s">
-        <v>940</v>
+        <v>822</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -9278,7 +9220,7 @@
         <v>prog_char string_116[] PROGMEM = "     unsure     ";</v>
       </c>
       <c r="N118" t="s">
-        <v>941</v>
+        <v>823</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -9328,7 +9270,7 @@
         <v>prog_char string_117[] PROGMEM = "     uneasy     ";</v>
       </c>
       <c r="N119" t="s">
-        <v>942</v>
+        <v>824</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -9353,7 +9295,7 @@
       </c>
       <c r="G120" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H120" t="s">
         <v>229</v>
@@ -9367,18 +9309,18 @@
       </c>
       <c r="K120" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">     tense     </v>
+        <v xml:space="preserve">     tense      </v>
       </c>
       <c r="L120">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M120" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_118[] PROGMEM = "     tense     ";</v>
+        <v>prog_char string_118[] PROGMEM = "     tense      ";</v>
       </c>
       <c r="N120" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -9403,7 +9345,7 @@
       </c>
       <c r="G121" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H121" t="s">
         <v>229</v>
@@ -9417,18 +9359,18 @@
       </c>
       <c r="K121" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   offensive   </v>
+        <v xml:space="preserve">   offensive    </v>
       </c>
       <c r="L121">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M121" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_119[] PROGMEM = "   offensive   ";</v>
+        <v>prog_char string_119[] PROGMEM = "   offensive    ";</v>
       </c>
       <c r="N121" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -9453,7 +9395,7 @@
       </c>
       <c r="G122" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H122" t="s">
         <v>229</v>
@@ -9467,18 +9409,18 @@
       </c>
       <c r="K122" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    crushed    </v>
+        <v xml:space="preserve">    crushed     </v>
       </c>
       <c r="L122">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M122" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_120[] PROGMEM = "    crushed    ";</v>
+        <v>prog_char string_120[] PROGMEM = "    crushed     ";</v>
       </c>
       <c r="N122" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -9503,7 +9445,7 @@
       </c>
       <c r="G123" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H123" t="s">
         <v>229</v>
@@ -9517,18 +9459,18 @@
       </c>
       <c r="K123" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   tormented   </v>
+        <v xml:space="preserve">   tormented    </v>
       </c>
       <c r="L123">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M123" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_121[] PROGMEM = "   tormented   ";</v>
+        <v>prog_char string_121[] PROGMEM = "   tormented    ";</v>
       </c>
       <c r="N123" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -9578,7 +9520,7 @@
         <v>prog_char string_122[] PROGMEM = "    deprived    ";</v>
       </c>
       <c r="N124" t="s">
-        <v>947</v>
+        <v>825</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -9628,7 +9570,7 @@
         <v>prog_char string_123[] PROGMEM = "    tortured    ";</v>
       </c>
       <c r="N125" t="s">
-        <v>948</v>
+        <v>826</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -9678,7 +9620,7 @@
         <v>prog_char string_124[] PROGMEM = "    dejected    ";</v>
       </c>
       <c r="N126" t="s">
-        <v>949</v>
+        <v>827</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -9728,7 +9670,7 @@
         <v>prog_char string_125[] PROGMEM = "    rejected    ";</v>
       </c>
       <c r="N127" t="s">
-        <v>950</v>
+        <v>828</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -9753,7 +9695,7 @@
       </c>
       <c r="G128" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H128" t="s">
         <v>229</v>
@@ -9767,18 +9709,18 @@
       </c>
       <c r="K128" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    injured    </v>
+        <v xml:space="preserve">    injured     </v>
       </c>
       <c r="L128">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M128" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_126[] PROGMEM = "    injured    ";</v>
+        <v>prog_char string_126[] PROGMEM = "    injured     ";</v>
       </c>
       <c r="N128" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -9828,7 +9770,7 @@
         <v>prog_char string_127[] PROGMEM = "    offended    ";</v>
       </c>
       <c r="N129" t="s">
-        <v>952</v>
+        <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -9853,7 +9795,7 @@
       </c>
       <c r="G130" s="2" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H130" t="s">
         <v>229</v>
@@ -9867,18 +9809,18 @@
       </c>
       <c r="K130" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   afflicted   </v>
+        <v xml:space="preserve">   afflicted    </v>
       </c>
       <c r="L130">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M130" t="str">
         <f t="shared" si="12"/>
-        <v>prog_char string_128[] PROGMEM = "   afflicted   ";</v>
+        <v>prog_char string_128[] PROGMEM = "   afflicted    ";</v>
       </c>
       <c r="N130" t="s">
-        <v>953</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
@@ -9924,46 +9866,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>954</v>
+        <v>830</v>
       </c>
       <c r="B1" t="s">
-        <v>955</v>
+        <v>831</v>
       </c>
       <c r="C1" t="s">
-        <v>956</v>
+        <v>832</v>
       </c>
       <c r="D1" t="s">
-        <v>957</v>
+        <v>833</v>
       </c>
       <c r="E1" t="s">
-        <v>958</v>
+        <v>834</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>959</v>
+        <v>835</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>958</v>
+        <v>834</v>
       </c>
       <c r="H1" t="s">
-        <v>957</v>
+        <v>833</v>
       </c>
       <c r="I1" t="s">
-        <v>960</v>
+        <v>836</v>
       </c>
       <c r="J1" t="s">
-        <v>961</v>
+        <v>837</v>
       </c>
       <c r="K1" t="s">
-        <v>962</v>
+        <v>838</v>
       </c>
       <c r="L1" t="s">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="M1" t="s">
-        <v>964</v>
+        <v>840</v>
       </c>
       <c r="N1" t="s">
-        <v>965</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -9987,8 +9929,8 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>REPT(" ",((16-J2)/2))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(LEN(E2)*2+LEN(F2)&gt;15,REPT(" ",((16-J2)/2)),REPT(" ",((16-J2)/2)+1))</f>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="H2" s="1" t="s">
         <v>229</v>
@@ -10002,18 +9944,18 @@
       </c>
       <c r="K2" s="1" t="str">
         <f>CONCATENATE(E2,F2,G2)</f>
-        <v xml:space="preserve"> understanding </v>
+        <v xml:space="preserve"> understanding  </v>
       </c>
       <c r="L2" s="1">
         <f>LEN(K2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2)</f>
-        <v>prog_char string_129[] PROGMEM = " understanding ";</v>
+        <v>prog_char string_129[] PROGMEM = " understanding  ";</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>725</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10037,7 +9979,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G66" si="1">REPT(" ",((16-J3)/2))</f>
+        <f t="shared" ref="G3:G66" si="1">IF(LEN(E3)*2+LEN(F3)&gt;15,REPT(" ",((16-J3)/2)),REPT(" ",((16-J3)/2)+1))</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="H3" s="1" t="s">
@@ -10063,7 +10005,7 @@
         <v>prog_char string_130[] PROGMEM = "    reliable    ";</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -10113,7 +10055,7 @@
         <v>prog_char string_131[] PROGMEM = "      easy      ";</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -10163,7 +10105,7 @@
         <v>prog_char string_132[] PROGMEM = "     amazed     ";</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -10188,7 +10130,7 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H6" s="1" t="s">
         <v>229</v>
@@ -10202,18 +10144,18 @@
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  sympathetic  </v>
+        <v xml:space="preserve">  sympathetic   </v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_133[] PROGMEM = "  sympathetic  ";</v>
+        <v>prog_char string_133[] PROGMEM = "  sympathetic   ";</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -10263,7 +10205,7 @@
         <v>prog_char string_134[] PROGMEM = "   interested   ";</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -10288,7 +10230,7 @@
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H8" s="1" t="s">
         <v>229</v>
@@ -10302,18 +10244,18 @@
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   receptive   </v>
+        <v xml:space="preserve">   receptive    </v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_135[] PROGMEM = "   receptive   ";</v>
+        <v>prog_char string_135[] PROGMEM = "   receptive    ";</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>731</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -10338,7 +10280,7 @@
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H9" s="1" t="s">
         <v>229</v>
@@ -10352,18 +10294,18 @@
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   accepting   </v>
+        <v xml:space="preserve">   accepting    </v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_136[] PROGMEM = "   accepting   ";</v>
+        <v>prog_char string_136[] PROGMEM = "   accepting    ";</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>732</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -10413,7 +10355,7 @@
         <v>prog_char string_137[] PROGMEM = "      kind      ";</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -10463,7 +10405,7 @@
         <v>prog_char string_138[] PROGMEM = "     loving     ";</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -10488,7 +10430,7 @@
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H12" s="1" t="s">
         <v>229</v>
@@ -10502,18 +10444,18 @@
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  considerate  </v>
+        <v xml:space="preserve">  considerate   </v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_139[] PROGMEM = "  considerate  ";</v>
+        <v>prog_char string_139[] PROGMEM = "  considerate   ";</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>735</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -10563,7 +10505,7 @@
         <v>prog_char string_140[] PROGMEM = "  affectionate  ";</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -10588,7 +10530,7 @@
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H14" s="1" t="s">
         <v>229</v>
@@ -10602,18 +10544,18 @@
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   sensitive   </v>
+        <v xml:space="preserve">   sensitive    </v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_141[] PROGMEM = "   sensitive   ";</v>
+        <v>prog_char string_141[] PROGMEM = "   sensitive    ";</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>737</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -10663,7 +10605,7 @@
         <v>prog_char string_142[] PROGMEM = "     tender     ";</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -10688,7 +10630,7 @@
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H16" s="1" t="s">
         <v>229</v>
@@ -10702,18 +10644,18 @@
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    devoted    </v>
+        <v xml:space="preserve">    devoted     </v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_143[] PROGMEM = "    devoted    ";</v>
+        <v>prog_char string_143[] PROGMEM = "    devoted     ";</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>739</v>
+        <v>853</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -10738,7 +10680,7 @@
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H17" s="1" t="s">
         <v>229</v>
@@ -10752,18 +10694,18 @@
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   attracted   </v>
+        <v xml:space="preserve">   attracted    </v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_144[] PROGMEM = "   attracted   ";</v>
+        <v>prog_char string_144[] PROGMEM = "   attracted    ";</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -10813,7 +10755,7 @@
         <v>prog_char string_145[] PROGMEM = "   passionate   ";</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -10863,7 +10805,7 @@
         <v>prog_char string_146[] PROGMEM = "   admiration   ";</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -10913,7 +10855,7 @@
         <v>prog_char string_147[] PROGMEM = "      warm      ";</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -10938,7 +10880,7 @@
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H21" s="1" t="s">
         <v>229</v>
@@ -10952,18 +10894,18 @@
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    touched    </v>
+        <v xml:space="preserve">    touched     </v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_148[] PROGMEM = "    touched    ";</v>
+        <v>prog_char string_148[] PROGMEM = "    touched     ";</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>744</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -11013,7 +10955,7 @@
         <v>prog_char string_149[] PROGMEM = "    sympathy    ";</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -11038,7 +10980,7 @@
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H23" s="1" t="s">
         <v>229</v>
@@ -11052,18 +10994,18 @@
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     close     </v>
+        <v xml:space="preserve">     close      </v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_150[] PROGMEM = "     close     ";</v>
+        <v>prog_char string_150[] PROGMEM = "     close      ";</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>746</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -11088,7 +11030,7 @@
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H24" s="1" t="s">
         <v>229</v>
@@ -11102,18 +11044,18 @@
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     loved     </v>
+        <v xml:space="preserve">     loved      </v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_151[] PROGMEM = "     loved     ";</v>
+        <v>prog_char string_151[] PROGMEM = "     loved      ";</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>747</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -11138,7 +11080,7 @@
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H25" s="1" t="s">
         <v>229</v>
@@ -11152,18 +11094,18 @@
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   comforted   </v>
+        <v xml:space="preserve">   comforted    </v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_152[] PROGMEM = "   comforted   ";</v>
+        <v>prog_char string_152[] PROGMEM = "   comforted    ";</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -11213,7 +11155,7 @@
         <v>prog_char string_153[] PROGMEM = "  drawn toward  ";</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -11238,7 +11180,7 @@
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H27" s="1" t="s">
         <v>229</v>
@@ -11252,18 +11194,18 @@
       </c>
       <c r="K27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     great     </v>
+        <v xml:space="preserve">     great      </v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_154[] PROGMEM = "     great     ";</v>
+        <v>prog_char string_154[] PROGMEM = "     great      ";</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>750</v>
+        <v>859</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -11288,7 +11230,7 @@
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      </v>
+        <v xml:space="preserve">       </v>
       </c>
       <c r="H28" s="1" t="s">
         <v>229</v>
@@ -11302,18 +11244,18 @@
       </c>
       <c r="K28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      gay      </v>
+        <v xml:space="preserve">      gay       </v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_155[] PROGMEM = "      gay      ";</v>
+        <v>prog_char string_155[] PROGMEM = "      gay       ";</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>751</v>
+        <v>860</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -11363,7 +11305,7 @@
         <v>prog_char string_156[] PROGMEM = "     joyous     ";</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -11388,7 +11330,7 @@
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H30" s="1" t="s">
         <v>229</v>
@@ -11402,18 +11344,18 @@
       </c>
       <c r="K30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     lucky     </v>
+        <v xml:space="preserve">     lucky      </v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_157[] PROGMEM = "     lucky     ";</v>
+        <v>prog_char string_157[] PROGMEM = "     lucky      ";</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -11438,7 +11380,7 @@
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H31" s="1" t="s">
         <v>229</v>
@@ -11452,18 +11394,18 @@
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   fortunate   </v>
+        <v xml:space="preserve">   fortunate    </v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_158[] PROGMEM = "   fortunate   ";</v>
+        <v>prog_char string_158[] PROGMEM = "   fortunate    ";</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>754</v>
+        <v>862</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -11488,7 +11430,7 @@
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H32" s="1" t="s">
         <v>229</v>
@@ -11502,18 +11444,18 @@
       </c>
       <c r="K32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   delighted   </v>
+        <v xml:space="preserve">   delighted    </v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_159[] PROGMEM = "   delighted   ";</v>
+        <v>prog_char string_159[] PROGMEM = "   delighted    ";</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>755</v>
+        <v>863</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -11538,7 +11480,7 @@
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H33" s="1" t="s">
         <v>229</v>
@@ -11552,18 +11494,18 @@
       </c>
       <c r="K33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   overjoyed   </v>
+        <v xml:space="preserve">   overjoyed    </v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_160[] PROGMEM = "   overjoyed   ";</v>
+        <v>prog_char string_160[] PROGMEM = "   overjoyed    ";</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>756</v>
+        <v>864</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -11588,7 +11530,7 @@
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H34" s="1" t="s">
         <v>229</v>
@@ -11602,18 +11544,18 @@
       </c>
       <c r="K34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    gleeful    </v>
+        <v xml:space="preserve">    gleeful     </v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_161[] PROGMEM = "    gleeful    ";</v>
+        <v>prog_char string_161[] PROGMEM = "    gleeful     ";</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>757</v>
+        <v>865</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -11663,7 +11605,7 @@
         <v>prog_char string_162[] PROGMEM = "    thankful    ";</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -11688,7 +11630,7 @@
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H36" s="1" t="s">
         <v>229</v>
@@ -11702,18 +11644,18 @@
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   important   </v>
+        <v xml:space="preserve">   important    </v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M36" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_163[] PROGMEM = "   important   ";</v>
+        <v>prog_char string_163[] PROGMEM = "   important    ";</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>759</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -11738,7 +11680,7 @@
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H37" s="1" t="s">
         <v>229</v>
@@ -11752,18 +11694,18 @@
       </c>
       <c r="K37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    festive    </v>
+        <v xml:space="preserve">    festive     </v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_164[] PROGMEM = "    festive    ";</v>
+        <v>prog_char string_164[] PROGMEM = "    festive     ";</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>760</v>
+        <v>867</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -11813,7 +11755,7 @@
         <v>prog_char string_165[] PROGMEM = "    ecstatic    ";</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -11863,7 +11805,7 @@
         <v>prog_char string_166[] PROGMEM = "      glad      ";</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -11913,7 +11855,7 @@
         <v>prog_char string_167[] PROGMEM = "    cheerful    ";</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -11938,7 +11880,7 @@
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H41" s="1" t="s">
         <v>229</v>
@@ -11952,18 +11894,18 @@
       </c>
       <c r="K41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     sunny     </v>
+        <v xml:space="preserve">     sunny      </v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_168[] PROGMEM = "     sunny     ";</v>
+        <v>prog_char string_168[] PROGMEM = "     sunny      ";</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>764</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -11988,7 +11930,7 @@
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H42" s="1" t="s">
         <v>229</v>
@@ -12002,18 +11944,18 @@
       </c>
       <c r="K42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     merry     </v>
+        <v xml:space="preserve">     merry      </v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_169[] PROGMEM = "     merry     ";</v>
+        <v>prog_char string_169[] PROGMEM = "     merry      ";</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -12063,7 +12005,7 @@
         <v>prog_char string_170[] PROGMEM = "     elated     ";</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -12113,7 +12055,7 @@
         <v>prog_char string_171[] PROGMEM = "    jubilant    ";</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -12138,7 +12080,7 @@
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H45" s="1" t="s">
         <v>229</v>
@@ -12152,18 +12094,18 @@
       </c>
       <c r="K45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   concerned   </v>
+        <v xml:space="preserve">   concerned    </v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_172[] PROGMEM = "   concerned   ";</v>
+        <v>prog_char string_172[] PROGMEM = "   concerned    ";</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>768</v>
+        <v>870</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -12213,7 +12155,7 @@
         <v>prog_char string_173[] PROGMEM = "    affected    ";</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -12263,7 +12205,7 @@
         <v>prog_char string_174[] PROGMEM = "   fascinated   ";</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -12288,7 +12230,7 @@
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H48" s="1" t="s">
         <v>229</v>
@@ -12302,18 +12244,18 @@
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   intrigued   </v>
+        <v xml:space="preserve">   intrigued    </v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_175[] PROGMEM = "   intrigued   ";</v>
+        <v>prog_char string_175[] PROGMEM = "   intrigued    ";</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>771</v>
+        <v>871</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -12363,7 +12305,7 @@
         <v>prog_char string_176[] PROGMEM = "    absorbed    ";</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -12388,7 +12330,7 @@
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H50" s="1" t="s">
         <v>229</v>
@@ -12402,18 +12344,18 @@
       </c>
       <c r="K50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  inquisitive  </v>
+        <v xml:space="preserve">  inquisitive   </v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_177[] PROGMEM = "  inquisitive  ";</v>
+        <v>prog_char string_177[] PROGMEM = "  inquisitive   ";</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>773</v>
+        <v>872</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -12463,7 +12405,7 @@
         <v>prog_char string_178[] PROGMEM = "      nosy      ";</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>774</v>
+        <v>747</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -12513,7 +12455,7 @@
         <v>prog_char string_179[] PROGMEM = "     snoopy     ";</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>775</v>
+        <v>748</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -12538,7 +12480,7 @@
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H53" s="1" t="s">
         <v>229</v>
@@ -12552,18 +12494,18 @@
       </c>
       <c r="K53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   engrossed   </v>
+        <v xml:space="preserve">   engrossed    </v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_180[] PROGMEM = "   engrossed   ";</v>
+        <v>prog_char string_180[] PROGMEM = "   engrossed    ";</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -12588,7 +12530,7 @@
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H54" s="1" t="s">
         <v>229</v>
@@ -12602,18 +12544,18 @@
       </c>
       <c r="K54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    curious    </v>
+        <v xml:space="preserve">    curious     </v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_181[] PROGMEM = "    curious    ";</v>
+        <v>prog_char string_181[] PROGMEM = "    curious     ";</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>777</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -12638,7 +12580,7 @@
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H55" s="1" t="s">
         <v>229</v>
@@ -12652,18 +12594,18 @@
       </c>
       <c r="K55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    playful    </v>
+        <v xml:space="preserve">    playful     </v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_182[] PROGMEM = "    playful    ";</v>
+        <v>prog_char string_182[] PROGMEM = "    playful     ";</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>778</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -12713,7 +12655,7 @@
         <v>prog_char string_183[] PROGMEM = "   courageous   ";</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -12738,7 +12680,7 @@
       </c>
       <c r="G57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H57" s="1" t="s">
         <v>229</v>
@@ -12752,18 +12694,18 @@
       </c>
       <c r="K57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   energetic   </v>
+        <v xml:space="preserve">   energetic    </v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_184[] PROGMEM = "   energetic   ";</v>
+        <v>prog_char string_184[] PROGMEM = "   energetic    ";</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>780</v>
+        <v>876</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -12788,7 +12730,7 @@
       </c>
       <c r="G58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H58" s="1" t="s">
         <v>229</v>
@@ -12802,18 +12744,18 @@
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   liberated   </v>
+        <v xml:space="preserve">   liberated    </v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M58" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_185[] PROGMEM = "   liberated   ";</v>
+        <v>prog_char string_185[] PROGMEM = "   liberated    ";</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -12838,7 +12780,7 @@
       </c>
       <c r="G59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H59" s="1" t="s">
         <v>229</v>
@@ -12852,18 +12794,18 @@
       </c>
       <c r="K59" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  provocative  </v>
+        <v xml:space="preserve">  provocative   </v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_186[] PROGMEM = "  provocative  ";</v>
+        <v>prog_char string_186[] PROGMEM = "  provocative   ";</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -12913,7 +12855,7 @@
         <v>prog_char string_187[] PROGMEM = "     frisky     ";</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>783</v>
+        <v>750</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -12963,7 +12905,7 @@
         <v>prog_char string_188[] PROGMEM = "    animated    ";</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -13013,7 +12955,7 @@
         <v>prog_char string_189[] PROGMEM = "    spirited    ";</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>785</v>
+        <v>752</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -13063,7 +13005,7 @@
         <v>prog_char string_190[] PROGMEM = "    thrilled    ";</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>786</v>
+        <v>753</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -13088,7 +13030,7 @@
       </c>
       <c r="G64" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H64" s="1" t="s">
         <v>229</v>
@@ -13102,18 +13044,18 @@
       </c>
       <c r="K64" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   wonderful   </v>
+        <v xml:space="preserve">   wonderful    </v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M64" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_191[] PROGMEM = "   wonderful   ";</v>
+        <v>prog_char string_191[] PROGMEM = "   wonderful    ";</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>787</v>
+        <v>879</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -13138,7 +13080,7 @@
       </c>
       <c r="G65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H65" s="1" t="s">
         <v>229</v>
@@ -13152,18 +13094,18 @@
       </c>
       <c r="K65" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">     eager     </v>
+        <v xml:space="preserve">     eager      </v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M65" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>prog_char string_192[] PROGMEM = "     eager     ";</v>
+        <v>prog_char string_192[] PROGMEM = "     eager      ";</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -13213,7 +13155,7 @@
         <v>prog_char string_193[] PROGMEM = "      keen      ";</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -13237,8 +13179,8 @@
         <v>61</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" ref="G67:G102" si="7">REPT(" ",((16-J67)/2))</f>
-        <v xml:space="preserve">    </v>
+        <f t="shared" ref="G67:G102" si="7">IF(LEN(E67)*2+LEN(F67)&gt;15,REPT(" ",((16-J67)/2)),REPT(" ",((16-J67)/2)+1))</f>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H67" s="1" t="s">
         <v>229</v>
@@ -13252,18 +13194,18 @@
       </c>
       <c r="K67" s="1" t="str">
         <f t="shared" ref="K67:K102" si="9">CONCATENATE(E67,F67,G67)</f>
-        <v xml:space="preserve">    earnest    </v>
+        <v xml:space="preserve">    earnest     </v>
       </c>
       <c r="L67" s="1">
         <f t="shared" ref="L67:L102" si="10">LEN(K67)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67" s="1" t="str">
         <f t="shared" ref="M67:M102" si="11">CONCATENATE(A67,B67,C67,D67,E67,F67,G67,H67,I67)</f>
-        <v>prog_char string_194[] PROGMEM = "    earnest    ";</v>
+        <v>prog_char string_194[] PROGMEM = "    earnest     ";</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>790</v>
+        <v>881</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -13313,7 +13255,7 @@
         <v>prog_char string_195[] PROGMEM = "     intent     ";</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -13338,7 +13280,7 @@
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H69" s="1" t="s">
         <v>229</v>
@@ -13352,18 +13294,18 @@
       </c>
       <c r="K69" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    anxious    </v>
+        <v xml:space="preserve">    anxious     </v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M69" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_196[] PROGMEM = "    anxious    ";</v>
+        <v>prog_char string_196[] PROGMEM = "    anxious     ";</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>792</v>
+        <v>882</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -13413,7 +13355,7 @@
         <v>prog_char string_197[] PROGMEM = "    inspired    ";</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>793</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -13463,7 +13405,7 @@
         <v>prog_char string_198[] PROGMEM = "   determined   ";</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>794</v>
+        <v>757</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -13488,7 +13430,7 @@
       </c>
       <c r="G72" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H72" s="1" t="s">
         <v>229</v>
@@ -13502,18 +13444,18 @@
       </c>
       <c r="K72" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    excited    </v>
+        <v xml:space="preserve">    excited     </v>
       </c>
       <c r="L72" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M72" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_199[] PROGMEM = "    excited    ";</v>
+        <v>prog_char string_199[] PROGMEM = "    excited     ";</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>795</v>
+        <v>883</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -13563,7 +13505,7 @@
         <v>prog_char string_200[] PROGMEM = "  enthusiastic  ";</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -13613,7 +13555,7 @@
         <v>prog_char string_201[] PROGMEM = "      bold      ";</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -13638,7 +13580,7 @@
       </c>
       <c r="G75" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H75" s="1" t="s">
         <v>229</v>
@@ -13652,18 +13594,18 @@
       </c>
       <c r="K75" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     brave     </v>
+        <v xml:space="preserve">     brave      </v>
       </c>
       <c r="L75" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M75" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_202[] PROGMEM = "     brave     ";</v>
+        <v>prog_char string_202[] PROGMEM = "     brave      ";</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>798</v>
+        <v>884</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -13713,7 +13655,7 @@
         <v>prog_char string_203[] PROGMEM = "     daring     ";</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>799</v>
+        <v>760</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -13763,7 +13705,7 @@
         <v>prog_char string_204[] PROGMEM = "   challenged   ";</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>800</v>
+        <v>761</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -13788,7 +13730,7 @@
       </c>
       <c r="G78" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H78" s="1" t="s">
         <v>229</v>
@@ -13802,18 +13744,18 @@
       </c>
       <c r="K78" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  re-enforced  </v>
+        <v xml:space="preserve">  re-enforced   </v>
       </c>
       <c r="L78" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M78" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_205[] PROGMEM = "  re-enforced  ";</v>
+        <v>prog_char string_205[] PROGMEM = "  re-enforced   ";</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>801</v>
+        <v>885</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -13838,7 +13780,7 @@
       </c>
       <c r="G79" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H79" s="1" t="s">
         <v>229</v>
@@ -13852,18 +13794,18 @@
       </c>
       <c r="K79" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    hopeful    </v>
+        <v xml:space="preserve">    hopeful     </v>
       </c>
       <c r="L79" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M79" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_206[] PROGMEM = "    hopeful    ";</v>
+        <v>prog_char string_206[] PROGMEM = "    hopeful     ";</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>802</v>
+        <v>886</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -13913,7 +13855,7 @@
         <v>prog_char string_207[] PROGMEM = "      calm      ";</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>803</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -13963,7 +13905,7 @@
         <v>prog_char string_208[] PROGMEM = "    peaceful    ";</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -13988,7 +13930,7 @@
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H82" s="1" t="s">
         <v>229</v>
@@ -14002,18 +13944,18 @@
       </c>
       <c r="K82" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    at ease    </v>
+        <v xml:space="preserve">    at ease     </v>
       </c>
       <c r="L82" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_209[] PROGMEM = "    at ease    ";</v>
+        <v>prog_char string_209[] PROGMEM = "    at ease     ";</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>805</v>
+        <v>887</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -14038,7 +13980,7 @@
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H83" s="1" t="s">
         <v>229</v>
@@ -14052,18 +13994,18 @@
       </c>
       <c r="K83" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  comfortable  </v>
+        <v xml:space="preserve">  comfortable   </v>
       </c>
       <c r="L83" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M83" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_210[] PROGMEM = "  comfortable  ";</v>
+        <v>prog_char string_210[] PROGMEM = "  comfortable   ";</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>806</v>
+        <v>888</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -14088,7 +14030,7 @@
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H84" s="1" t="s">
         <v>229</v>
@@ -14102,18 +14044,18 @@
       </c>
       <c r="K84" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    pleased    </v>
+        <v xml:space="preserve">    pleased     </v>
       </c>
       <c r="L84" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M84" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_211[] PROGMEM = "    pleased    ";</v>
+        <v>prog_char string_211[] PROGMEM = "    pleased     ";</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>807</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -14163,7 +14105,7 @@
         <v>prog_char string_212[] PROGMEM = "   encouraged   ";</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>808</v>
+        <v>764</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -14213,7 +14155,7 @@
         <v>prog_char string_213[] PROGMEM = "     clever     ";</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>809</v>
+        <v>765</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -14238,7 +14180,7 @@
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H87" s="1" t="s">
         <v>229</v>
@@ -14252,18 +14194,18 @@
       </c>
       <c r="K87" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   surprised   </v>
+        <v xml:space="preserve">   surprised    </v>
       </c>
       <c r="L87" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M87" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_214[] PROGMEM = "   surprised   ";</v>
+        <v>prog_char string_214[] PROGMEM = "   surprised    ";</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>810</v>
+        <v>890</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -14288,7 +14230,7 @@
       </c>
       <c r="G88" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H88" s="1" t="s">
         <v>229</v>
@@ -14302,18 +14244,18 @@
       </c>
       <c r="K88" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    content    </v>
+        <v xml:space="preserve">    content     </v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M88" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_215[] PROGMEM = "    content    ";</v>
+        <v>prog_char string_215[] PROGMEM = "    content     ";</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>811</v>
+        <v>891</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -14338,7 +14280,7 @@
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H89" s="1" t="s">
         <v>229</v>
@@ -14352,18 +14294,18 @@
       </c>
       <c r="K89" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     quiet     </v>
+        <v xml:space="preserve">     quiet      </v>
       </c>
       <c r="L89" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M89" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_216[] PROGMEM = "     quiet     ";</v>
+        <v>prog_char string_216[] PROGMEM = "     quiet      ";</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>812</v>
+        <v>892</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -14388,7 +14330,7 @@
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H90" s="1" t="s">
         <v>229</v>
@@ -14402,18 +14344,18 @@
       </c>
       <c r="K90" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    relaxed    </v>
+        <v xml:space="preserve">    relaxed     </v>
       </c>
       <c r="L90" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M90" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_217[] PROGMEM = "    relaxed    ";</v>
+        <v>prog_char string_217[] PROGMEM = "    relaxed     ";</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>813</v>
+        <v>893</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -14463,7 +14405,7 @@
         <v>prog_char string_218[] PROGMEM = "     serene     ";</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>814</v>
+        <v>766</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -14488,7 +14430,7 @@
       </c>
       <c r="G92" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="H92" s="1" t="s">
         <v>229</v>
@@ -14502,18 +14444,18 @@
       </c>
       <c r="K92" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> free and easy </v>
+        <v xml:space="preserve"> free and easy  </v>
       </c>
       <c r="L92" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M92" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_219[] PROGMEM = " free and easy ";</v>
+        <v>prog_char string_219[] PROGMEM = " free and easy  ";</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>815</v>
+        <v>894</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -14563,7 +14505,7 @@
         <v>prog_char string_220[] PROGMEM = "     bright     ";</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>816</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -14588,7 +14530,7 @@
       </c>
       <c r="G94" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H94" s="1" t="s">
         <v>229</v>
@@ -14602,18 +14544,18 @@
       </c>
       <c r="K94" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    blessed    </v>
+        <v xml:space="preserve">    blessed     </v>
       </c>
       <c r="L94" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M94" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_221[] PROGMEM = "    blessed    ";</v>
+        <v>prog_char string_221[] PROGMEM = "    blessed     ";</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>817</v>
+        <v>895</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -14638,7 +14580,7 @@
       </c>
       <c r="G95" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H95" s="1" t="s">
         <v>229</v>
@@ -14652,18 +14594,18 @@
       </c>
       <c r="K95" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   reassured   </v>
+        <v xml:space="preserve">   reassured    </v>
       </c>
       <c r="L95" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M95" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_222[] PROGMEM = "   reassured   ";</v>
+        <v>prog_char string_222[] PROGMEM = "   reassured    ";</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>818</v>
+        <v>896</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -14713,7 +14655,7 @@
         <v>prog_char string_223[] PROGMEM = "      sure      ";</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>819</v>
+        <v>768</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -14763,7 +14705,7 @@
         <v>prog_char string_224[] PROGMEM = "   rebellious   ";</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>820</v>
+        <v>769</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -14813,7 +14755,7 @@
         <v>prog_char string_225[] PROGMEM = "     unique     ";</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>821</v>
+        <v>770</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -14838,7 +14780,7 @@
       </c>
       <c r="G99" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="H99" s="1" t="s">
         <v>229</v>
@@ -14852,18 +14794,18 @@
       </c>
       <c r="K99" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">    dynamic    </v>
+        <v xml:space="preserve">    dynamic     </v>
       </c>
       <c r="L99" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M99" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_226[] PROGMEM = "    dynamic    ";</v>
+        <v>prog_char string_226[] PROGMEM = "    dynamic     ";</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>822</v>
+        <v>897</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -14888,7 +14830,7 @@
       </c>
       <c r="G100" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H100" s="1" t="s">
         <v>229</v>
@@ -14902,18 +14844,18 @@
       </c>
       <c r="K100" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   tenacious   </v>
+        <v xml:space="preserve">   tenacious    </v>
       </c>
       <c r="L100" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M100" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_227[] PROGMEM = "   tenacious   ";</v>
+        <v>prog_char string_227[] PROGMEM = "   tenacious    ";</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>823</v>
+        <v>898</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -14938,7 +14880,7 @@
       </c>
       <c r="G101" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">     </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="H101" s="1" t="s">
         <v>229</v>
@@ -14952,18 +14894,18 @@
       </c>
       <c r="K101" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">     hardy     </v>
+        <v xml:space="preserve">     hardy      </v>
       </c>
       <c r="L101" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M101" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prog_char string_228[] PROGMEM = "     hardy     ";</v>
+        <v>prog_char string_228[] PROGMEM = "     hardy      ";</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>824</v>
+        <v>899</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -15013,7 +14955,7 @@
         <v>prog_char string_229[] PROGMEM = "     secure     ";</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>825</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -15023,7 +14965,7 @@
     <filterColumn colId="10"/>
     <filterColumn colId="11"/>
     <sortState ref="A2:J115">
-      <sortCondition sortBy="cellColor" ref="A1:A115" dxfId="6"/>
+      <sortCondition sortBy="cellColor" ref="A1:A115" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15049,16 +14991,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>966</v>
+        <v>842</v>
       </c>
       <c r="B1" t="s">
-        <v>967</v>
+        <v>843</v>
       </c>
       <c r="C1" t="s">
-        <v>968</v>
+        <v>844</v>
       </c>
       <c r="D1" t="s">
-        <v>969</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -18744,1169 +18686,1400 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A231"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="49.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>902</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>777</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>904</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>905</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>906</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>778</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>907</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>908</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>780</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>781</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>909</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>782</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>910</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>783</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>911</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>784</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>785</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>786</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>787</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>912</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>913</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>914</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>915</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>916</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>788</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>917</v>
+      </c>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>789</v>
+      </c>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>918</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>919</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>790</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>920</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>791</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>792</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>793</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>794</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>795</v>
+      </c>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>921</v>
+      </c>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>922</v>
+      </c>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>923</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>924</v>
+      </c>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>796</v>
+      </c>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>925</v>
+      </c>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>926</v>
+      </c>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>797</v>
+      </c>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>798</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>927</v>
+      </c>
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>799</v>
+      </c>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>928</v>
+      </c>
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>929</v>
+      </c>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>930</v>
+      </c>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>931</v>
+      </c>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>800</v>
+      </c>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>932</v>
+      </c>
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>801</v>
+      </c>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>933</v>
+      </c>
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>802</v>
+      </c>
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>934</v>
+      </c>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>935</v>
+      </c>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>936</v>
+      </c>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>803</v>
+      </c>
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>804</v>
+      </c>
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>805</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>806</v>
+      </c>
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>937</v>
+      </c>
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>807</v>
+      </c>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>938</v>
+      </c>
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>808</v>
+      </c>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>809</v>
+      </c>
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>810</v>
+      </c>
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>811</v>
+      </c>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>812</v>
+      </c>
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>939</v>
+      </c>
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>940</v>
+      </c>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>941</v>
+      </c>
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>942</v>
+      </c>
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>943</v>
+      </c>
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>944</v>
+      </c>
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>813</v>
+      </c>
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>945</v>
+      </c>
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>946</v>
+      </c>
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>947</v>
+      </c>
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>948</v>
+      </c>
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>814</v>
+      </c>
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>949</v>
+      </c>
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>815</v>
+      </c>
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>950</v>
+      </c>
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>951</v>
+      </c>
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>816</v>
+      </c>
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>817</v>
+      </c>
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>818</v>
+      </c>
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>952</v>
+      </c>
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>953</v>
+      </c>
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>954</v>
+      </c>
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>819</v>
+      </c>
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>955</v>
+      </c>
+      <c r="B105" s="6"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>820</v>
+      </c>
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>956</v>
+      </c>
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>957</v>
+      </c>
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>958</v>
+      </c>
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>959</v>
+      </c>
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>821</v>
+      </c>
+      <c r="B111" s="6"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>960</v>
+      </c>
+      <c r="B112" s="6"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>961</v>
+      </c>
+      <c r="B113" s="6"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>962</v>
+      </c>
+      <c r="B114" s="6"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>963</v>
+      </c>
+      <c r="B115" s="6"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>964</v>
+      </c>
+      <c r="B116" s="6"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>822</v>
+      </c>
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>823</v>
+      </c>
+      <c r="B118" s="6"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>824</v>
+      </c>
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>965</v>
+      </c>
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>966</v>
+      </c>
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>967</v>
+      </c>
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>968</v>
+      </c>
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>825</v>
+      </c>
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>826</v>
+      </c>
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>827</v>
+      </c>
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>828</v>
+      </c>
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>969</v>
+      </c>
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>829</v>
+      </c>
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B137" s="7"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B138" s="7"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B139" s="7"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B140" s="7"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B141" s="7"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B142" s="7"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B143" s="7"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B145" s="7"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B146" s="7"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B147" s="7"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B148" s="7"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B149" s="7"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B150" s="7"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B151" s="7"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B152" s="7"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B153" s="7"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B154" s="7"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B156" s="7"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B158" s="7"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B159" s="7"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B160" s="7"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B161" s="7"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B162" s="7"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B163" s="7"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B165" s="7"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B166" s="7"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B167" s="7"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B168" s="7"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B169" s="7"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B170" s="7"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B171" s="7"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B172" s="7"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B176" s="7"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B177" s="7"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B178" s="7"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B180" s="7"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B181" s="7"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B182" s="7"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B183" s="7"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B184" s="7"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B185" s="7"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B186" s="7"/>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B187" s="7"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B188" s="7"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B189" s="7"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B190" s="7"/>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B191" s="7"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B192" s="7"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B193" s="7"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B194" s="7"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B195" s="7"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B196" s="7"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B197" s="7"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B198" s="7"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B199" s="7"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B200" s="7"/>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B201" s="7"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B202" s="7"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B203" s="7"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B204" s="7"/>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B205" s="7"/>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B206" s="7"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B207" s="7"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B208" s="7"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B209" s="7"/>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B210" s="7"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B211" s="7"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B212" s="7"/>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B213" s="7"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B214" s="7"/>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B215" s="7"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B216" s="7"/>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B217" s="7"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B218" s="7"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B219" s="7"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B220" s="7"/>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B221" s="7"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B222" s="7"/>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B223" s="7"/>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B224" s="7"/>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B225" s="7"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B226" s="7"/>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B227" s="7"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B228" s="7"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B229" s="7"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
+      <c r="B230" s="7"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1" t="s">
-        <v>825</v>
-      </c>
+      <c r="B231" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Master_Word_List.xlsx
+++ b/Master_Word_List.xlsx
@@ -3309,7 +3309,7 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.140625" defaultRowHeight="15"/>
